--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="225">
   <si>
     <t>Notes</t>
   </si>
@@ -1468,6 +1468,15 @@
   </si>
   <si>
     <t>AV2016 pdf p31</t>
+  </si>
+  <si>
+    <t>F/E</t>
+  </si>
+  <si>
+    <t>Share of E in EF:</t>
+  </si>
+  <si>
+    <t>bfactor</t>
   </si>
 </sst>
 </file>
@@ -2014,6 +2023,9 @@
     <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2058,9 +2070,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4184,7 +4193,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,16 +4340,16 @@
       <c r="B18" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="103">
         <v>49956623000</v>
       </c>
-      <c r="D18" s="118"/>
+      <c r="D18" s="103"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="103">
         <v>57390069000</v>
       </c>
     </row>
@@ -4405,14 +4414,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="106"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -4439,10 +4448,10 @@
       <c r="C5" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="109"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
@@ -4454,21 +4463,21 @@
       <c r="C6" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="109"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
@@ -4480,10 +4489,10 @@
       <c r="C8" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="103"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -4640,20 +4649,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="111"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="66" t="s">
         <v>150</v>
       </c>
@@ -5704,10 +5713,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -5733,28 +5742,28 @@
       <c r="A7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="110"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="112"/>
+      <c r="C8" s="113"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="114"/>
+      <c r="C9" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5811,24 +5820,24 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110" t="s">
+      <c r="E5" s="111"/>
+      <c r="F5" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="110"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="66" t="s">
         <v>150</v>
       </c>
@@ -6902,10 +6911,10 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -6920,19 +6929,19 @@
       <c r="A6" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="116"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="110"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
@@ -7000,16 +7009,16 @@
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="111"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="66" t="s">
         <v>150</v>
       </c>
@@ -7692,19 +7701,19 @@
       <c r="A4" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="109"/>
+      <c r="C4" s="110"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="109"/>
+      <c r="C5" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7756,16 +7765,16 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="111"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="66" t="s">
         <v>150</v>
       </c>
@@ -8415,28 +8424,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
@@ -8444,7 +8453,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
@@ -8452,7 +8461,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>58</v>
       </c>
@@ -8468,32 +8477,35 @@
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="J6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="K6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="L6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="M6" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="N6" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="O6" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="P6" s="48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
         <v>194</v>
       </c>
@@ -8509,32 +8521,35 @@
       <c r="G7" s="48">
         <v>3</v>
       </c>
-      <c r="H7" s="38">
-        <v>1</v>
+      <c r="H7" s="48">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I7" s="38">
         <v>1</v>
       </c>
       <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7" s="38">
         <v>62</v>
       </c>
-      <c r="K7" s="38">
+      <c r="L7" s="38">
         <v>5</v>
       </c>
-      <c r="L7" s="38">
+      <c r="M7" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M7" s="48">
-        <v>0</v>
-      </c>
       <c r="N7" s="48">
+        <v>0</v>
+      </c>
+      <c r="O7" s="48">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O7" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
         <v>195</v>
       </c>
@@ -8551,31 +8566,34 @@
         <v>3</v>
       </c>
       <c r="H8" s="48">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I8" s="48">
         <v>1</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="48">
+        <v>1</v>
+      </c>
+      <c r="K8" s="38">
         <v>65</v>
       </c>
-      <c r="K8" s="38">
+      <c r="L8" s="38">
         <v>10</v>
       </c>
-      <c r="L8" s="38">
+      <c r="M8" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M8" s="48">
+      <c r="N8" s="48">
         <v>0.5</v>
-      </c>
-      <c r="N8" s="48">
-        <v>3.7499999999999999E-2</v>
       </c>
       <c r="O8" s="48">
         <v>3.7499999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="48">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
         <v>196</v>
       </c>
@@ -8592,27 +8610,30 @@
         <v>3</v>
       </c>
       <c r="H9" s="48">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I9" s="48">
         <v>1</v>
       </c>
       <c r="J9" s="48">
+        <v>1</v>
+      </c>
+      <c r="K9" s="48">
         <v>65</v>
       </c>
-      <c r="K9" s="48">
+      <c r="L9" s="48">
         <v>10</v>
       </c>
-      <c r="L9" s="48">
+      <c r="M9" s="48">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M9" s="48">
+      <c r="N9" s="48">
         <v>0.5</v>
       </c>
-      <c r="N9" s="48">
+      <c r="O9" s="48">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="O9" s="48">
+      <c r="P9" s="48">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
@@ -8661,20 +8682,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117" t="s">
+      <c r="C5" s="118"/>
+      <c r="D5" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="78" t="s">
         <v>176</v>
       </c>
@@ -10446,10 +10467,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10520,21 +10541,21 @@
         <v>186</v>
       </c>
       <c r="B72">
-        <v>41189</v>
+        <v>48628</v>
       </c>
       <c r="C72" s="45">
-        <f>1000*1033264/B72</f>
-        <v>25085.920998324797</v>
+        <f>1000*1308000/B72</f>
+        <v>26898.083408735707</v>
       </c>
       <c r="D72">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="E72">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="F72">
-        <f>29058/(29058+12131)</f>
-        <v>0.70547961834470363</v>
+        <f>34563/B72</f>
+        <v>0.71076334622028459</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10542,21 +10563,39 @@
         <v>187</v>
       </c>
       <c r="B73">
-        <v>7280</v>
+        <v>9293</v>
       </c>
       <c r="C73" s="45">
-        <f>1000*252084/B73</f>
-        <v>34626.923076923078</v>
+        <f>1000*342190/B73</f>
+        <v>36822.339395243733</v>
       </c>
       <c r="D73">
-        <v>36.299999999999997</v>
+        <v>37</v>
       </c>
       <c r="E73">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F73">
-        <f>5115/(2165+5115)</f>
-        <v>0.70260989010989006</v>
+        <f>6523/B73</f>
+        <v>0.70192618099644899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74">
+        <f>C73/C72</f>
+        <v>1.3689577370886179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76">
+        <f>B72/SUM(B72:B73)</f>
+        <v>0.83955732808480521</v>
       </c>
     </row>
   </sheetData>
@@ -10569,8 +10608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10619,7 +10658,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -10734,7 +10773,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -11330,8 +11369,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11459,7 +11498,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="101">
-        <v>1430690</v>
+        <v>1430690000</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>200</v>

--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -8426,8 +8426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8435,6 +8435,7 @@
     <col min="7" max="8" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="21.140625" customWidth="1"/>
@@ -10608,7 +10609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -38,6 +38,7 @@
     <sheet name="Options" sheetId="36" r:id="rId24"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1503,7 +1504,7 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1667,6 +1668,21 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1766,7 +1782,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,9 +1872,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2083,6 +2096,13 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4215,11 +4235,11 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="57" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="58" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -4244,7 +4264,7 @@
       <c r="B3" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="50"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4258,57 +4278,57 @@
       <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="59" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="89" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="91" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4319,22 +4339,22 @@
       <c r="B8" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="98">
         <v>2011</v>
       </c>
-      <c r="D8" s="95">
+      <c r="D8" s="94">
         <v>16729283000</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="95">
         <v>24</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="94">
         <v>18099923000</v>
       </c>
-      <c r="G8" s="96">
+      <c r="G8" s="95">
         <v>19</v>
       </c>
-      <c r="H8" s="101">
+      <c r="H8" s="100">
         <v>1430690000</v>
       </c>
       <c r="I8" s="36" t="s">
@@ -4348,22 +4368,22 @@
       <c r="B9" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="96">
         <v>2011</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="97">
         <v>3419297000</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="95">
         <v>24</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="97">
         <v>3787111000</v>
       </c>
-      <c r="G9" s="96">
+      <c r="G9" s="95">
         <v>19</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="101">
         <v>295019000</v>
       </c>
       <c r="I9" s="36" t="s">
@@ -4377,22 +4397,22 @@
       <c r="B10" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="97">
+      <c r="C10" s="96">
         <v>2012</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="97">
         <v>564642000</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="95">
         <v>24</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="97">
         <v>619685000</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="95">
         <v>20</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="101">
         <v>46630000</v>
       </c>
       <c r="I10" s="36" t="s">
@@ -4406,22 +4426,22 @@
       <c r="B11" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="96">
         <v>2012</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="97">
         <v>4592397000</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="95">
         <v>24</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="97">
         <v>5040081000</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="95">
         <v>20</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="101">
         <v>379255000</v>
       </c>
       <c r="I11" s="36" t="s">
@@ -4435,22 +4455,22 @@
       <c r="B12" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="96">
         <v>2013</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="97">
         <v>2372550000</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="95">
         <v>24</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="97">
         <v>2598272000</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="95">
         <v>21</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="101">
         <v>189307000</v>
       </c>
       <c r="I12" s="36" t="s">
@@ -4464,22 +4484,22 @@
       <c r="B13" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="96">
         <v>2014</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="97">
         <v>2707494000</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="95">
         <v>24</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="97">
         <v>2952381000</v>
       </c>
-      <c r="G13" s="96">
+      <c r="G13" s="95">
         <v>22</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="101">
         <v>208727000</v>
       </c>
       <c r="I13" s="36" t="s">
@@ -4493,22 +4513,22 @@
       <c r="B14" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="96">
         <v>2015</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="97">
         <v>2170432000</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="95">
         <v>24</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="97">
         <v>2352007000</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="95">
         <v>23</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="101">
         <v>161665000</v>
       </c>
       <c r="I14" s="36" t="s">
@@ -4522,22 +4542,22 @@
       <c r="B15" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="98">
         <v>2016</v>
       </c>
-      <c r="D15" s="95">
+      <c r="D15" s="94">
         <v>1941277000</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="95">
         <v>24</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="99">
         <v>2086873000</v>
       </c>
-      <c r="G15" s="96">
+      <c r="G15" s="95">
         <v>23</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="100">
         <v>139707000</v>
       </c>
       <c r="I15" s="36" t="s">
@@ -4551,22 +4571,22 @@
       <c r="B16" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="96">
         <v>2017</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="94">
         <v>2666236000</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="95">
         <v>24</v>
       </c>
-      <c r="F16" s="95">
+      <c r="F16" s="94">
         <v>2666236000</v>
       </c>
-      <c r="G16" s="96">
+      <c r="G16" s="95">
         <v>24</v>
       </c>
-      <c r="H16" s="101">
+      <c r="H16" s="100">
         <v>186696000</v>
       </c>
       <c r="I16" s="36" t="s">
@@ -4580,22 +4600,22 @@
       <c r="B17" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="98">
         <v>2017</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="94">
         <v>2521326000</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="95">
         <v>24</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="94">
         <v>2521326000</v>
       </c>
-      <c r="G17" s="96">
+      <c r="G17" s="95">
         <v>24</v>
       </c>
-      <c r="H17" s="101">
+      <c r="H17" s="100">
         <v>176549000</v>
       </c>
       <c r="I17" s="36" t="s">
@@ -4672,7 +4692,7 @@
       <c r="B7">
         <v>2017</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="86">
         <f>($C$18-$C$19)/$C$20</f>
         <v>-743344600</v>
       </c>
@@ -4681,7 +4701,7 @@
       <c r="B8">
         <v>2018</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="86">
         <f t="shared" ref="C8:C16" si="0">($C$18-$C$19)/$C$20</f>
         <v>-743344600</v>
       </c>
@@ -4690,7 +4710,7 @@
       <c r="B9">
         <v>2019</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
@@ -4699,7 +4719,7 @@
       <c r="B10">
         <v>2020</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
@@ -4708,7 +4728,7 @@
       <c r="B11">
         <v>2021</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
@@ -4717,7 +4737,7 @@
       <c r="B12">
         <v>2022</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
@@ -4726,7 +4746,7 @@
       <c r="B13">
         <v>2023</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
@@ -4735,17 +4755,17 @@
       <c r="B14">
         <v>2024</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2025</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
@@ -4754,7 +4774,7 @@
       <c r="B16">
         <v>2026</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="86">
         <f t="shared" si="0"/>
         <v>-743344600</v>
       </c>
@@ -4763,16 +4783,16 @@
       <c r="B18" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="102">
         <v>49956623000</v>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="102"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="103">
+      <c r="C19" s="102">
         <v>57390069000</v>
       </c>
     </row>
@@ -4837,94 +4857,94 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="104"/>
+      <c r="D3" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="107"/>
+      <c r="E3" s="106"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="108"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="110"/>
+      <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -5072,1023 +5092,1023 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="67" t="s">
         <v>164</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="68">
         <v>19</v>
       </c>
-      <c r="B8" s="72">
-        <v>0</v>
-      </c>
-      <c r="C8" s="72">
-        <v>0</v>
-      </c>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="72">
+      <c r="B8" s="71">
+        <v>0</v>
+      </c>
+      <c r="C8" s="71">
+        <v>0</v>
+      </c>
+      <c r="D8" s="71">
+        <v>0</v>
+      </c>
+      <c r="E8" s="71">
         <v>0</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="69">
         <v>20</v>
       </c>
-      <c r="B9" s="73">
-        <v>0</v>
-      </c>
-      <c r="C9" s="73">
-        <v>0</v>
-      </c>
-      <c r="D9" s="73">
-        <v>0</v>
-      </c>
-      <c r="E9" s="73">
+      <c r="B9" s="72">
+        <v>0</v>
+      </c>
+      <c r="C9" s="72">
+        <v>0</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0</v>
+      </c>
+      <c r="E9" s="72">
         <v>0</v>
       </c>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="69">
         <v>21</v>
       </c>
-      <c r="B10" s="73">
-        <v>0</v>
-      </c>
-      <c r="C10" s="73">
-        <v>0</v>
-      </c>
-      <c r="D10" s="73">
-        <v>0</v>
-      </c>
-      <c r="E10" s="73">
+      <c r="B10" s="72">
+        <v>0</v>
+      </c>
+      <c r="C10" s="72">
+        <v>0</v>
+      </c>
+      <c r="D10" s="72">
+        <v>0</v>
+      </c>
+      <c r="E10" s="72">
         <v>0</v>
       </c>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="69">
         <v>22</v>
       </c>
-      <c r="B11" s="73">
-        <v>0</v>
-      </c>
-      <c r="C11" s="73">
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
-        <v>0</v>
-      </c>
-      <c r="E11" s="73">
+      <c r="B11" s="72">
+        <v>0</v>
+      </c>
+      <c r="C11" s="72">
+        <v>0</v>
+      </c>
+      <c r="D11" s="72">
+        <v>0</v>
+      </c>
+      <c r="E11" s="72">
         <v>0</v>
       </c>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="69">
         <v>23</v>
       </c>
-      <c r="B12" s="73">
-        <v>0</v>
-      </c>
-      <c r="C12" s="73">
-        <v>0</v>
-      </c>
-      <c r="D12" s="73">
-        <v>0</v>
-      </c>
-      <c r="E12" s="73">
+      <c r="B12" s="72">
+        <v>0</v>
+      </c>
+      <c r="C12" s="72">
+        <v>0</v>
+      </c>
+      <c r="D12" s="72">
+        <v>0</v>
+      </c>
+      <c r="E12" s="72">
         <v>0</v>
       </c>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="69">
         <v>24</v>
       </c>
-      <c r="B13" s="73">
-        <v>0</v>
-      </c>
-      <c r="C13" s="73">
-        <v>0</v>
-      </c>
-      <c r="D13" s="73">
-        <v>0</v>
-      </c>
-      <c r="E13" s="73">
+      <c r="B13" s="72">
+        <v>0</v>
+      </c>
+      <c r="C13" s="72">
+        <v>0</v>
+      </c>
+      <c r="D13" s="72">
+        <v>0</v>
+      </c>
+      <c r="E13" s="72">
         <v>0</v>
       </c>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="69">
         <v>25</v>
       </c>
-      <c r="B14" s="73">
-        <v>0</v>
-      </c>
-      <c r="C14" s="73">
-        <v>0</v>
-      </c>
-      <c r="D14" s="73">
-        <v>0</v>
-      </c>
-      <c r="E14" s="73">
+      <c r="B14" s="72">
+        <v>0</v>
+      </c>
+      <c r="C14" s="72">
+        <v>0</v>
+      </c>
+      <c r="D14" s="72">
+        <v>0</v>
+      </c>
+      <c r="E14" s="72">
         <v>0</v>
       </c>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="69">
         <v>26</v>
       </c>
-      <c r="B15" s="73">
-        <v>0</v>
-      </c>
-      <c r="C15" s="73">
-        <v>0</v>
-      </c>
-      <c r="D15" s="73">
-        <v>0</v>
-      </c>
-      <c r="E15" s="73">
+      <c r="B15" s="72">
+        <v>0</v>
+      </c>
+      <c r="C15" s="72">
+        <v>0</v>
+      </c>
+      <c r="D15" s="72">
+        <v>0</v>
+      </c>
+      <c r="E15" s="72">
         <v>0</v>
       </c>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="69">
         <v>27</v>
       </c>
-      <c r="B16" s="73">
-        <v>0</v>
-      </c>
-      <c r="C16" s="73">
-        <v>0</v>
-      </c>
-      <c r="D16" s="73">
-        <v>0</v>
-      </c>
-      <c r="E16" s="73">
+      <c r="B16" s="72">
+        <v>0</v>
+      </c>
+      <c r="C16" s="72">
+        <v>0</v>
+      </c>
+      <c r="D16" s="72">
+        <v>0</v>
+      </c>
+      <c r="E16" s="72">
         <v>0</v>
       </c>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="A17" s="69">
         <v>28</v>
       </c>
-      <c r="B17" s="73">
-        <v>0</v>
-      </c>
-      <c r="C17" s="73">
-        <v>0</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0</v>
-      </c>
-      <c r="E17" s="73">
+      <c r="B17" s="72">
+        <v>0</v>
+      </c>
+      <c r="C17" s="72">
+        <v>0</v>
+      </c>
+      <c r="D17" s="72">
+        <v>0</v>
+      </c>
+      <c r="E17" s="72">
         <v>0</v>
       </c>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+      <c r="A18" s="69">
         <v>29</v>
       </c>
-      <c r="B18" s="73">
-        <v>0</v>
-      </c>
-      <c r="C18" s="73">
-        <v>0</v>
-      </c>
-      <c r="D18" s="73">
-        <v>0</v>
-      </c>
-      <c r="E18" s="73">
+      <c r="B18" s="72">
+        <v>0</v>
+      </c>
+      <c r="C18" s="72">
+        <v>0</v>
+      </c>
+      <c r="D18" s="72">
+        <v>0</v>
+      </c>
+      <c r="E18" s="72">
         <v>0</v>
       </c>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="69">
         <v>30</v>
       </c>
-      <c r="B19" s="73">
-        <v>0</v>
-      </c>
-      <c r="C19" s="73">
-        <v>0</v>
-      </c>
-      <c r="D19" s="73">
-        <v>0</v>
-      </c>
-      <c r="E19" s="73">
+      <c r="B19" s="72">
+        <v>0</v>
+      </c>
+      <c r="C19" s="72">
+        <v>0</v>
+      </c>
+      <c r="D19" s="72">
+        <v>0</v>
+      </c>
+      <c r="E19" s="72">
         <v>0</v>
       </c>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="69">
         <v>31</v>
       </c>
-      <c r="B20" s="73">
-        <v>0</v>
-      </c>
-      <c r="C20" s="73">
-        <v>0</v>
-      </c>
-      <c r="D20" s="73">
-        <v>0</v>
-      </c>
-      <c r="E20" s="73">
+      <c r="B20" s="72">
+        <v>0</v>
+      </c>
+      <c r="C20" s="72">
+        <v>0</v>
+      </c>
+      <c r="D20" s="72">
+        <v>0</v>
+      </c>
+      <c r="E20" s="72">
         <v>0</v>
       </c>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+      <c r="A21" s="69">
         <v>32</v>
       </c>
-      <c r="B21" s="73">
-        <v>0</v>
-      </c>
-      <c r="C21" s="73">
-        <v>0</v>
-      </c>
-      <c r="D21" s="73">
-        <v>0</v>
-      </c>
-      <c r="E21" s="73">
+      <c r="B21" s="72">
+        <v>0</v>
+      </c>
+      <c r="C21" s="72">
+        <v>0</v>
+      </c>
+      <c r="D21" s="72">
+        <v>0</v>
+      </c>
+      <c r="E21" s="72">
         <v>0</v>
       </c>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
+      <c r="A22" s="69">
         <v>33</v>
       </c>
-      <c r="B22" s="73">
-        <v>0</v>
-      </c>
-      <c r="C22" s="73">
-        <v>0</v>
-      </c>
-      <c r="D22" s="73">
-        <v>0</v>
-      </c>
-      <c r="E22" s="73">
+      <c r="B22" s="72">
+        <v>0</v>
+      </c>
+      <c r="C22" s="72">
+        <v>0</v>
+      </c>
+      <c r="D22" s="72">
+        <v>0</v>
+      </c>
+      <c r="E22" s="72">
         <v>0</v>
       </c>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="69">
         <v>34</v>
       </c>
-      <c r="B23" s="73">
-        <v>0</v>
-      </c>
-      <c r="C23" s="73">
-        <v>0</v>
-      </c>
-      <c r="D23" s="73">
-        <v>0</v>
-      </c>
-      <c r="E23" s="73">
+      <c r="B23" s="72">
+        <v>0</v>
+      </c>
+      <c r="C23" s="72">
+        <v>0</v>
+      </c>
+      <c r="D23" s="72">
+        <v>0</v>
+      </c>
+      <c r="E23" s="72">
         <v>0</v>
       </c>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
+      <c r="A24" s="69">
         <v>35</v>
       </c>
-      <c r="B24" s="73">
-        <v>0</v>
-      </c>
-      <c r="C24" s="73">
-        <v>0</v>
-      </c>
-      <c r="D24" s="73">
-        <v>0</v>
-      </c>
-      <c r="E24" s="73">
+      <c r="B24" s="72">
+        <v>0</v>
+      </c>
+      <c r="C24" s="72">
+        <v>0</v>
+      </c>
+      <c r="D24" s="72">
+        <v>0</v>
+      </c>
+      <c r="E24" s="72">
         <v>0</v>
       </c>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+      <c r="A25" s="69">
         <v>36</v>
       </c>
-      <c r="B25" s="73">
-        <v>0</v>
-      </c>
-      <c r="C25" s="73">
-        <v>0</v>
-      </c>
-      <c r="D25" s="73">
-        <v>0</v>
-      </c>
-      <c r="E25" s="73">
+      <c r="B25" s="72">
+        <v>0</v>
+      </c>
+      <c r="C25" s="72">
+        <v>0</v>
+      </c>
+      <c r="D25" s="72">
+        <v>0</v>
+      </c>
+      <c r="E25" s="72">
         <v>0</v>
       </c>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
+      <c r="A26" s="69">
         <v>37</v>
       </c>
-      <c r="B26" s="73">
-        <v>0</v>
-      </c>
-      <c r="C26" s="73">
-        <v>0</v>
-      </c>
-      <c r="D26" s="73">
-        <v>0</v>
-      </c>
-      <c r="E26" s="73">
+      <c r="B26" s="72">
+        <v>0</v>
+      </c>
+      <c r="C26" s="72">
+        <v>0</v>
+      </c>
+      <c r="D26" s="72">
+        <v>0</v>
+      </c>
+      <c r="E26" s="72">
         <v>0</v>
       </c>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="69">
         <v>38</v>
       </c>
-      <c r="B27" s="73">
-        <v>0</v>
-      </c>
-      <c r="C27" s="73">
-        <v>0</v>
-      </c>
-      <c r="D27" s="73">
-        <v>0</v>
-      </c>
-      <c r="E27" s="73">
+      <c r="B27" s="72">
+        <v>0</v>
+      </c>
+      <c r="C27" s="72">
+        <v>0</v>
+      </c>
+      <c r="D27" s="72">
+        <v>0</v>
+      </c>
+      <c r="E27" s="72">
         <v>0</v>
       </c>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+      <c r="A28" s="69">
         <v>39</v>
       </c>
-      <c r="B28" s="73">
-        <v>0</v>
-      </c>
-      <c r="C28" s="73">
-        <v>0</v>
-      </c>
-      <c r="D28" s="73">
-        <v>0</v>
-      </c>
-      <c r="E28" s="73">
+      <c r="B28" s="72">
+        <v>0</v>
+      </c>
+      <c r="C28" s="72">
+        <v>0</v>
+      </c>
+      <c r="D28" s="72">
+        <v>0</v>
+      </c>
+      <c r="E28" s="72">
         <v>0</v>
       </c>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="69">
         <v>40</v>
       </c>
-      <c r="B29" s="73">
-        <v>0</v>
-      </c>
-      <c r="C29" s="73">
-        <v>0</v>
-      </c>
-      <c r="D29" s="73">
-        <v>0</v>
-      </c>
-      <c r="E29" s="73">
+      <c r="B29" s="72">
+        <v>0</v>
+      </c>
+      <c r="C29" s="72">
+        <v>0</v>
+      </c>
+      <c r="D29" s="72">
+        <v>0</v>
+      </c>
+      <c r="E29" s="72">
         <v>0</v>
       </c>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
+      <c r="A30" s="69">
         <v>41</v>
       </c>
-      <c r="B30" s="73">
-        <v>0</v>
-      </c>
-      <c r="C30" s="73">
-        <v>0</v>
-      </c>
-      <c r="D30" s="73">
-        <v>0</v>
-      </c>
-      <c r="E30" s="73">
+      <c r="B30" s="72">
+        <v>0</v>
+      </c>
+      <c r="C30" s="72">
+        <v>0</v>
+      </c>
+      <c r="D30" s="72">
+        <v>0</v>
+      </c>
+      <c r="E30" s="72">
         <v>0</v>
       </c>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="69">
         <v>42</v>
       </c>
-      <c r="B31" s="73">
-        <v>0</v>
-      </c>
-      <c r="C31" s="73">
-        <v>0</v>
-      </c>
-      <c r="D31" s="73">
-        <v>0</v>
-      </c>
-      <c r="E31" s="73">
+      <c r="B31" s="72">
+        <v>0</v>
+      </c>
+      <c r="C31" s="72">
+        <v>0</v>
+      </c>
+      <c r="D31" s="72">
+        <v>0</v>
+      </c>
+      <c r="E31" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="69">
         <v>43</v>
       </c>
-      <c r="B32" s="73">
-        <v>0</v>
-      </c>
-      <c r="C32" s="73">
-        <v>0</v>
-      </c>
-      <c r="D32" s="73">
-        <v>0</v>
-      </c>
-      <c r="E32" s="73">
+      <c r="B32" s="72">
+        <v>0</v>
+      </c>
+      <c r="C32" s="72">
+        <v>0</v>
+      </c>
+      <c r="D32" s="72">
+        <v>0</v>
+      </c>
+      <c r="E32" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="A33" s="69">
         <v>44</v>
       </c>
-      <c r="B33" s="73">
-        <v>0</v>
-      </c>
-      <c r="C33" s="73">
-        <v>0</v>
-      </c>
-      <c r="D33" s="73">
-        <v>0</v>
-      </c>
-      <c r="E33" s="73">
+      <c r="B33" s="72">
+        <v>0</v>
+      </c>
+      <c r="C33" s="72">
+        <v>0</v>
+      </c>
+      <c r="D33" s="72">
+        <v>0</v>
+      </c>
+      <c r="E33" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="A34" s="69">
         <v>45</v>
       </c>
-      <c r="B34" s="73">
-        <v>0</v>
-      </c>
-      <c r="C34" s="73">
-        <v>0</v>
-      </c>
-      <c r="D34" s="73">
+      <c r="B34" s="72">
+        <v>0</v>
+      </c>
+      <c r="C34" s="72">
+        <v>0</v>
+      </c>
+      <c r="D34" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="69">
         <v>46</v>
       </c>
-      <c r="B35" s="73">
-        <v>0</v>
-      </c>
-      <c r="C35" s="73">
-        <v>0</v>
-      </c>
-      <c r="D35" s="73">
+      <c r="B35" s="72">
+        <v>0</v>
+      </c>
+      <c r="C35" s="72">
+        <v>0</v>
+      </c>
+      <c r="D35" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="69">
         <v>47</v>
       </c>
-      <c r="B36" s="73">
-        <v>0</v>
-      </c>
-      <c r="C36" s="73">
-        <v>0</v>
-      </c>
-      <c r="D36" s="73">
+      <c r="B36" s="72">
+        <v>0</v>
+      </c>
+      <c r="C36" s="72">
+        <v>0</v>
+      </c>
+      <c r="D36" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="69">
         <v>48</v>
       </c>
-      <c r="B37" s="73">
-        <v>0</v>
-      </c>
-      <c r="C37" s="73">
-        <v>0</v>
-      </c>
-      <c r="D37" s="73">
+      <c r="B37" s="72">
+        <v>0</v>
+      </c>
+      <c r="C37" s="72">
+        <v>0</v>
+      </c>
+      <c r="D37" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="69">
         <v>49</v>
       </c>
-      <c r="B38" s="73">
-        <v>0</v>
-      </c>
-      <c r="C38" s="73">
-        <v>0</v>
-      </c>
-      <c r="D38" s="73">
+      <c r="B38" s="72">
+        <v>0</v>
+      </c>
+      <c r="C38" s="72">
+        <v>0</v>
+      </c>
+      <c r="D38" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E38" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="69">
         <v>50</v>
       </c>
-      <c r="B39" s="73">
-        <v>0</v>
-      </c>
-      <c r="C39" s="73">
-        <v>0</v>
-      </c>
-      <c r="D39" s="73">
+      <c r="B39" s="72">
+        <v>0</v>
+      </c>
+      <c r="C39" s="72">
+        <v>0</v>
+      </c>
+      <c r="D39" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+      <c r="A40" s="69">
         <v>51</v>
       </c>
-      <c r="B40" s="73">
-        <v>0</v>
-      </c>
-      <c r="C40" s="73">
-        <v>0</v>
-      </c>
-      <c r="D40" s="73">
+      <c r="B40" s="72">
+        <v>0</v>
+      </c>
+      <c r="C40" s="72">
+        <v>0</v>
+      </c>
+      <c r="D40" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E40" s="73">
+      <c r="E40" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="69">
         <v>52</v>
       </c>
-      <c r="B41" s="73">
-        <v>0</v>
-      </c>
-      <c r="C41" s="73">
-        <v>0</v>
-      </c>
-      <c r="D41" s="73">
+      <c r="B41" s="72">
+        <v>0</v>
+      </c>
+      <c r="C41" s="72">
+        <v>0</v>
+      </c>
+      <c r="D41" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
+      <c r="A42" s="69">
         <v>53</v>
       </c>
-      <c r="B42" s="73">
-        <v>0</v>
-      </c>
-      <c r="C42" s="73">
-        <v>0</v>
-      </c>
-      <c r="D42" s="73">
+      <c r="B42" s="72">
+        <v>0</v>
+      </c>
+      <c r="C42" s="72">
+        <v>0</v>
+      </c>
+      <c r="D42" s="72">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="72">
         <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="69">
         <v>54</v>
       </c>
-      <c r="B43" s="73">
-        <v>0</v>
-      </c>
-      <c r="C43" s="73">
-        <v>0</v>
-      </c>
-      <c r="D43" s="73">
+      <c r="B43" s="72">
+        <v>0</v>
+      </c>
+      <c r="C43" s="72">
+        <v>0</v>
+      </c>
+      <c r="D43" s="72">
         <v>0.26590000000000003</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="72">
         <v>0.1002</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
+      <c r="A44" s="69">
         <v>55</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="72">
         <v>0.1857</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="72">
         <v>0.18590000000000001</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="72">
         <v>0.26590000000000003</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="72">
         <v>0.1002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="69">
         <v>56</v>
       </c>
-      <c r="B45" s="73">
+      <c r="B45" s="72">
         <v>0.1724</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="72">
         <v>0.16819999999999999</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="72">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="72">
         <v>0.30049999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
+      <c r="A46" s="69">
         <v>57</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="72">
         <v>0.17030000000000001</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="72">
         <v>0.17030000000000001</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="72">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="72">
         <v>0.30049999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="69">
         <v>58</v>
       </c>
-      <c r="B47" s="73">
+      <c r="B47" s="72">
         <v>0.17280000000000001</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="72">
         <v>0.17380000000000001</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="72">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="72">
         <v>0.35049999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
+      <c r="A48" s="69">
         <v>59</v>
       </c>
-      <c r="B48" s="73">
+      <c r="B48" s="72">
         <v>0.21679999999999999</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="72">
         <v>0.21360000000000001</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" s="72">
         <v>0.30869999999999997</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="72">
         <v>0.35770000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+      <c r="A49" s="69">
         <v>60</v>
       </c>
-      <c r="B49" s="73">
+      <c r="B49" s="72">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="72">
         <v>0.17050000000000001</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" s="72">
         <v>0.30869999999999997</v>
       </c>
-      <c r="E49" s="73">
+      <c r="E49" s="72">
         <v>0.35770000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
+      <c r="A50" s="69">
         <v>61</v>
       </c>
-      <c r="B50" s="73">
+      <c r="B50" s="72">
         <v>0.28610000000000002</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="72">
         <v>0.2999</v>
       </c>
-      <c r="D50" s="73">
+      <c r="D50" s="72">
         <v>0.28810000000000002</v>
       </c>
-      <c r="E50" s="73">
+      <c r="E50" s="72">
         <v>0.30659999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="69">
         <v>62</v>
       </c>
-      <c r="B51" s="73">
-        <v>0</v>
-      </c>
-      <c r="C51" s="73">
-        <v>0</v>
-      </c>
-      <c r="D51" s="73">
+      <c r="B51" s="72">
+        <v>0</v>
+      </c>
+      <c r="C51" s="72">
+        <v>0</v>
+      </c>
+      <c r="D51" s="72">
         <v>0.51449999999999996</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="72">
         <v>0.61319999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
+      <c r="A52" s="69">
         <v>63</v>
       </c>
-      <c r="B52" s="73">
-        <v>0</v>
-      </c>
-      <c r="C52" s="73">
-        <v>0</v>
-      </c>
-      <c r="D52" s="73">
+      <c r="B52" s="72">
+        <v>0</v>
+      </c>
+      <c r="C52" s="72">
+        <v>0</v>
+      </c>
+      <c r="D52" s="72">
         <v>0.25729999999999997</v>
       </c>
-      <c r="E52" s="73">
+      <c r="E52" s="72">
         <v>0.2555</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="69">
         <v>64</v>
       </c>
-      <c r="B53" s="73">
-        <v>0</v>
-      </c>
-      <c r="C53" s="73">
-        <v>0</v>
-      </c>
-      <c r="D53" s="73">
+      <c r="B53" s="72">
+        <v>0</v>
+      </c>
+      <c r="C53" s="72">
+        <v>0</v>
+      </c>
+      <c r="D53" s="72">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E53" s="73">
+      <c r="E53" s="72">
         <v>0.2223</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
+      <c r="A54" s="69">
         <v>65</v>
       </c>
-      <c r="B54" s="73">
-        <v>0</v>
-      </c>
-      <c r="C54" s="73">
-        <v>0</v>
-      </c>
-      <c r="D54" s="73">
+      <c r="B54" s="72">
+        <v>0</v>
+      </c>
+      <c r="C54" s="72">
+        <v>0</v>
+      </c>
+      <c r="D54" s="72">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E54" s="73">
+      <c r="E54" s="72">
         <v>0.2223</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="69">
         <v>66</v>
       </c>
-      <c r="B55" s="73">
-        <v>0</v>
-      </c>
-      <c r="C55" s="73">
-        <v>0</v>
-      </c>
-      <c r="D55" s="73">
+      <c r="B55" s="72">
+        <v>0</v>
+      </c>
+      <c r="C55" s="72">
+        <v>0</v>
+      </c>
+      <c r="D55" s="72">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E55" s="73">
+      <c r="E55" s="72">
         <v>0.27789999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
+      <c r="A56" s="69">
         <v>67</v>
       </c>
-      <c r="B56" s="73">
-        <v>0</v>
-      </c>
-      <c r="C56" s="73">
-        <v>0</v>
-      </c>
-      <c r="D56" s="73">
+      <c r="B56" s="72">
+        <v>0</v>
+      </c>
+      <c r="C56" s="72">
+        <v>0</v>
+      </c>
+      <c r="D56" s="72">
         <v>0.1925</v>
       </c>
-      <c r="E56" s="73">
+      <c r="E56" s="72">
         <v>0.2223</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="69">
         <v>68</v>
       </c>
-      <c r="B57" s="73">
-        <v>0</v>
-      </c>
-      <c r="C57" s="73">
-        <v>0</v>
-      </c>
-      <c r="D57" s="73">
+      <c r="B57" s="72">
+        <v>0</v>
+      </c>
+      <c r="C57" s="72">
+        <v>0</v>
+      </c>
+      <c r="D57" s="72">
         <v>0.1925</v>
       </c>
-      <c r="E57" s="73">
+      <c r="E57" s="72">
         <v>0.2223</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
+      <c r="A58" s="69">
         <v>69</v>
       </c>
-      <c r="B58" s="73">
-        <v>0</v>
-      </c>
-      <c r="C58" s="73">
-        <v>0</v>
-      </c>
-      <c r="D58" s="73">
+      <c r="B58" s="72">
+        <v>0</v>
+      </c>
+      <c r="C58" s="72">
+        <v>0</v>
+      </c>
+      <c r="D58" s="72">
         <v>0.19339999999999999</v>
       </c>
-      <c r="E58" s="73">
+      <c r="E58" s="72">
         <v>0.22789999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="69">
         <v>70</v>
       </c>
-      <c r="B59" s="73">
-        <v>0</v>
-      </c>
-      <c r="C59" s="73">
-        <v>0</v>
-      </c>
-      <c r="D59" s="73">
+      <c r="B59" s="72">
+        <v>0</v>
+      </c>
+      <c r="C59" s="72">
+        <v>0</v>
+      </c>
+      <c r="D59" s="72">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E59" s="73">
+      <c r="E59" s="72">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
+      <c r="A60" s="69">
         <v>71</v>
       </c>
-      <c r="B60" s="73">
-        <v>0</v>
-      </c>
-      <c r="C60" s="73">
-        <v>0</v>
-      </c>
-      <c r="D60" s="73">
+      <c r="B60" s="72">
+        <v>0</v>
+      </c>
+      <c r="C60" s="72">
+        <v>0</v>
+      </c>
+      <c r="D60" s="72">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E60" s="73">
+      <c r="E60" s="72">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
+      <c r="A61" s="69">
         <v>72</v>
       </c>
-      <c r="B61" s="73">
-        <v>0</v>
-      </c>
-      <c r="C61" s="73">
-        <v>0</v>
-      </c>
-      <c r="D61" s="73">
+      <c r="B61" s="72">
+        <v>0</v>
+      </c>
+      <c r="C61" s="72">
+        <v>0</v>
+      </c>
+      <c r="D61" s="72">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E61" s="73">
+      <c r="E61" s="72">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
+      <c r="A62" s="69">
         <v>73</v>
       </c>
-      <c r="B62" s="73">
-        <v>0</v>
-      </c>
-      <c r="C62" s="73">
-        <v>0</v>
-      </c>
-      <c r="D62" s="73">
+      <c r="B62" s="72">
+        <v>0</v>
+      </c>
+      <c r="C62" s="72">
+        <v>0</v>
+      </c>
+      <c r="D62" s="72">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E62" s="73">
+      <c r="E62" s="72">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="71">
+      <c r="A63" s="70">
         <v>74</v>
       </c>
-      <c r="B63" s="74">
-        <v>0</v>
-      </c>
-      <c r="C63" s="74">
-        <v>0</v>
-      </c>
-      <c r="D63" s="74">
+      <c r="B63" s="73">
+        <v>0</v>
+      </c>
+      <c r="C63" s="73">
+        <v>0</v>
+      </c>
+      <c r="D63" s="73">
         <v>1</v>
       </c>
-      <c r="E63" s="74">
+      <c r="E63" s="73">
         <v>1</v>
       </c>
     </row>
@@ -6136,57 +6156,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="109"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="113"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="115"/>
+      <c r="C9" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6243,1052 +6263,1052 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="111"/>
+      <c r="G5" s="110"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="67" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="68">
         <v>19</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="71">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="71">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="71">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F8" s="72">
-        <v>0</v>
-      </c>
-      <c r="G8" s="72">
+      <c r="F8" s="71">
+        <v>0</v>
+      </c>
+      <c r="G8" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="69">
         <v>20</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="72">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="72">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F9" s="73">
-        <v>0</v>
-      </c>
-      <c r="G9" s="73">
+      <c r="F9" s="72">
+        <v>0</v>
+      </c>
+      <c r="G9" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="69">
         <v>21</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="72">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="72">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="72">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="72">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F10" s="73">
-        <v>0</v>
-      </c>
-      <c r="G10" s="73">
+      <c r="F10" s="72">
+        <v>0</v>
+      </c>
+      <c r="G10" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="69">
         <v>22</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="72">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="72">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="72">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="72">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F11" s="73">
-        <v>0</v>
-      </c>
-      <c r="G11" s="73">
+      <c r="F11" s="72">
+        <v>0</v>
+      </c>
+      <c r="G11" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="69">
         <v>23</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="72">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <v>0.1341</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="72">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="69">
         <v>24</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="72">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="72">
         <v>0.1341</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="72">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="72">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="69">
         <v>25</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="72">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="72">
         <v>0.1341</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="72">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="72">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="69">
         <v>26</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="72">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="72">
         <v>0.1341</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="72">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="72">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="69">
         <v>27</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="72">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <v>0.1341</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="72">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="72">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="72">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="A17" s="69">
         <v>28</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="72">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="72">
         <v>0.1381</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="72">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="72">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+      <c r="A18" s="69">
         <v>29</v>
       </c>
-      <c r="B18" s="73">
+      <c r="B18" s="72">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="72">
         <v>0.1381</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="72">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="72">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="72">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="69">
         <v>30</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="72">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="72">
         <v>0.1381</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="72">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="72">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="69">
         <v>31</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="72">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <v>0.1381</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="72">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+      <c r="A21" s="69">
         <v>32</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="72">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="72">
         <v>0.1381</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="72">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="72">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="72">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="72">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
+      <c r="A22" s="69">
         <v>33</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="72">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="72">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="72">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G22" s="73">
+      <c r="G22" s="72">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="69">
         <v>34</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="72">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="72">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D23" s="72">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="72">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="72">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
+      <c r="A24" s="69">
         <v>35</v>
       </c>
-      <c r="B24" s="73">
+      <c r="B24" s="72">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="72">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="72">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="72">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="72">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+      <c r="A25" s="69">
         <v>36</v>
       </c>
-      <c r="B25" s="73">
+      <c r="B25" s="72">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="72">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="72">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="72">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="72">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
+      <c r="A26" s="69">
         <v>37</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="72">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="72">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D26" s="73">
+      <c r="D26" s="72">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="72">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G26" s="73">
+      <c r="G26" s="72">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="69">
         <v>38</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="72">
         <v>0.1449</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="72">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="72">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="72">
         <v>4.87E-2</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="72">
         <v>1.34E-2</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="72">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+      <c r="A28" s="69">
         <v>39</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="72">
         <v>0.1449</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="72">
         <v>0.1244</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="72">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E28" s="73">
+      <c r="E28" s="72">
         <v>4.87E-2</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="72">
         <v>1.34E-2</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G28" s="72">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="69">
         <v>40</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="72">
         <v>0.1449</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="72">
         <v>0.1179</v>
       </c>
-      <c r="D29" s="73">
+      <c r="D29" s="72">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="72">
         <v>4.87E-2</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="72">
         <v>1.34E-2</v>
       </c>
-      <c r="G29" s="73">
+      <c r="G29" s="72">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
+      <c r="A30" s="69">
         <v>41</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="72">
         <v>0.1449</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="72">
         <v>0.1179</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" s="72">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="72">
         <v>4.87E-2</v>
       </c>
-      <c r="F30" s="73">
+      <c r="F30" s="72">
         <v>1.34E-2</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="72">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="69">
         <v>42</v>
       </c>
-      <c r="B31" s="73">
+      <c r="B31" s="72">
         <v>0.1449</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <v>0.1179</v>
       </c>
-      <c r="D31" s="73">
+      <c r="D31" s="72">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="72">
         <v>4.87E-2</v>
       </c>
-      <c r="F31" s="73">
+      <c r="F31" s="72">
         <v>1.34E-2</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="72">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="69">
         <v>43</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="72">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <v>0.1154</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="72">
         <v>4.53E-2</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="72">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="72">
         <v>1.37E-2</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="72">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="A33" s="69">
         <v>44</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="72">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <v>0.1154</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="72">
         <v>4.53E-2</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="72">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F33" s="73">
+      <c r="F33" s="72">
         <v>1.37E-2</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="72">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="A34" s="69">
         <v>45</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="72">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="72">
         <v>0.1154</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="72">
         <v>4.53E-2</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="72">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F34" s="73">
+      <c r="F34" s="72">
         <v>1.37E-2</v>
       </c>
-      <c r="G34" s="73">
+      <c r="G34" s="72">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="69">
         <v>46</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="72">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="72">
         <v>0.1154</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="72">
         <v>4.53E-2</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="72">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F35" s="73">
+      <c r="F35" s="72">
         <v>1.37E-2</v>
       </c>
-      <c r="G35" s="73">
+      <c r="G35" s="72">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="69">
         <v>47</v>
       </c>
-      <c r="B36" s="73">
+      <c r="B36" s="72">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="72">
         <v>0.1154</v>
       </c>
-      <c r="D36" s="73">
+      <c r="D36" s="72">
         <v>4.53E-2</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="72">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F36" s="72">
         <v>1.37E-2</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="72">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="69">
         <v>48</v>
       </c>
-      <c r="B37" s="73">
+      <c r="B37" s="72">
         <v>0.1431</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="72">
         <v>0.1166</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="72">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F37" s="73">
+      <c r="F37" s="72">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G37" s="73">
+      <c r="G37" s="72">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="69">
         <v>49</v>
       </c>
-      <c r="B38" s="73">
+      <c r="B38" s="72">
         <v>0.1431</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="72">
         <v>0.1166</v>
       </c>
-      <c r="D38" s="73">
+      <c r="D38" s="72">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E38" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="72">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G38" s="73">
+      <c r="G38" s="72">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="69">
         <v>50</v>
       </c>
-      <c r="B39" s="73">
+      <c r="B39" s="72">
         <v>0.1431</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="72">
         <v>0.1166</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="72">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F39" s="73">
+      <c r="F39" s="72">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G39" s="73">
+      <c r="G39" s="72">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+      <c r="A40" s="69">
         <v>51</v>
       </c>
-      <c r="B40" s="73">
+      <c r="B40" s="72">
         <v>0.1431</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="72">
         <v>0.1166</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="72">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E40" s="73">
+      <c r="E40" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="72">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G40" s="73">
+      <c r="G40" s="72">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="69">
         <v>52</v>
       </c>
-      <c r="B41" s="73">
+      <c r="B41" s="72">
         <v>0.1431</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="72">
         <v>0.1166</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="72">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F41" s="73">
+      <c r="F41" s="72">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G41" s="73">
+      <c r="G41" s="72">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
+      <c r="A42" s="69">
         <v>53</v>
       </c>
-      <c r="B42" s="73">
+      <c r="B42" s="72">
         <v>0.14380000000000001</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="72">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D42" s="73">
+      <c r="D42" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="72">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="72">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="72">
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="69">
         <v>54</v>
       </c>
-      <c r="B43" s="73">
+      <c r="B43" s="72">
         <v>0.14380000000000001</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="72">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="72">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F43" s="73">
+      <c r="F43" s="72">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G43" s="73">
+      <c r="G43" s="72">
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
+      <c r="A44" s="69">
         <v>55</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="72">
         <v>0.1217</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="72">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="72">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="72">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G44" s="73">
+      <c r="G44" s="72">
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="69">
         <v>56</v>
       </c>
-      <c r="B45" s="73">
+      <c r="B45" s="72">
         <v>0.1217</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="72">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="72">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F45" s="72">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G45" s="73">
+      <c r="G45" s="72">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
+      <c r="A46" s="69">
         <v>57</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="72">
         <v>0.11070000000000001</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="72">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="72">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="72">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F46" s="73">
+      <c r="F46" s="72">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G46" s="73">
+      <c r="G46" s="72">
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="69">
         <v>58</v>
       </c>
-      <c r="B47" s="73">
+      <c r="B47" s="72">
         <v>0.11840000000000001</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="72">
         <v>0.1225</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="72">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="72">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F47" s="73">
+      <c r="F47" s="72">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="G47" s="73">
+      <c r="G47" s="72">
         <v>4.65E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
+      <c r="A48" s="69">
         <v>59</v>
       </c>
-      <c r="B48" s="73">
+      <c r="B48" s="72">
         <v>0.11840000000000001</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="72">
         <v>0.1225</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" s="72">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="72">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="72">
         <v>5.57E-2</v>
       </c>
-      <c r="G48" s="73">
+      <c r="G48" s="72">
         <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+      <c r="A49" s="69">
         <v>60</v>
       </c>
-      <c r="B49" s="73">
+      <c r="B49" s="72">
         <v>0.12429999999999999</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="72">
         <v>0.1225</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" s="72">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E49" s="73">
+      <c r="E49" s="72">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F49" s="73">
+      <c r="F49" s="72">
         <v>5.57E-2</v>
       </c>
-      <c r="G49" s="73">
+      <c r="G49" s="72">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="71">
+      <c r="A50" s="70">
         <v>61</v>
       </c>
-      <c r="B50" s="74">
+      <c r="B50" s="73">
         <v>0.12429999999999999</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="73">
         <v>0.1225</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="73">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E50" s="74">
+      <c r="E50" s="73">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F50" s="74">
+      <c r="F50" s="73">
         <v>0.1237</v>
       </c>
-      <c r="G50" s="74">
+      <c r="G50" s="73">
         <v>0.1164</v>
       </c>
     </row>
@@ -7334,44 +7354,44 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="115"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="109"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7432,648 +7452,648 @@
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="111"/>
+      <c r="C5" s="110"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="68">
         <v>19</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="74">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="69">
         <v>20</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="69">
         <v>21</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="69">
         <v>22</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="69">
         <v>23</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="69">
         <v>24</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="69">
         <v>25</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="69">
         <v>26</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="69">
         <v>27</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="75">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="A17" s="69">
         <v>28</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="75">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+      <c r="A18" s="69">
         <v>29</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="75">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="69">
         <v>30</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="75">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="69">
         <v>31</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="75">
         <v>3.1799999999999998E-4</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="75">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+      <c r="A21" s="69">
         <v>32</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="75">
         <v>4.4099999999999999E-4</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="75">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
+      <c r="A22" s="69">
         <v>33</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>4.0700000000000003E-4</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="75">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="69">
         <v>34</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <v>4.9399999999999997E-4</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="75">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
+      <c r="A24" s="69">
         <v>35</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="75">
         <v>5.8200000000000005E-4</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="75">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+      <c r="A25" s="69">
         <v>36</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="75">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="75">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
+      <c r="A26" s="69">
         <v>37</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="75">
         <v>7.6800000000000002E-4</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="75">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="69">
         <v>38</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="75">
         <v>9.5600000000000004E-4</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="75">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+      <c r="A28" s="69">
         <v>39</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="75">
         <v>1.059E-3</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="75">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="69">
         <v>40</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="75">
         <v>1.163E-3</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="75">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
+      <c r="A30" s="69">
         <v>41</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="75">
         <v>1.163E-3</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="75">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="69">
         <v>42</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="75">
         <v>1.163E-3</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="75">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="69">
         <v>43</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="75">
         <v>1.598E-3</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="75">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="A33" s="69">
         <v>44</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="75">
         <v>1.598E-3</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="75">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="A34" s="69">
         <v>45</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="75">
         <v>1.598E-3</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="75">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="69">
         <v>46</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="75">
         <v>1.776E-3</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="75">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="69">
         <v>47</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="75">
         <v>1.954E-3</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="75">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="69">
         <v>48</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="75">
         <v>2.4299999999999999E-3</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="75">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="69">
         <v>49</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="75">
         <v>2.6329999999999999E-3</v>
       </c>
-      <c r="C38" s="76">
+      <c r="C38" s="75">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="69">
         <v>50</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="75">
         <v>2.8349999999999998E-3</v>
       </c>
-      <c r="C39" s="76">
+      <c r="C39" s="75">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+      <c r="A40" s="69">
         <v>51</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="75">
         <v>3.1389999999999999E-3</v>
       </c>
-      <c r="C40" s="76">
+      <c r="C40" s="75">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="69">
         <v>52</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="75">
         <v>3.4429999999999999E-3</v>
       </c>
-      <c r="C41" s="76">
+      <c r="C41" s="75">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
+      <c r="A42" s="69">
         <v>53</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="75">
         <v>3.8049999999999998E-3</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="75">
         <v>2.5209999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="69">
         <v>54</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="75">
         <v>4.1139999999999996E-3</v>
       </c>
-      <c r="C43" s="76">
+      <c r="C43" s="75">
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
+      <c r="A44" s="69">
         <v>55</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="75">
         <v>4.4229999999999998E-3</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="75">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="69">
         <v>56</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="75">
         <v>4.731E-3</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="75">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
+      <c r="A46" s="69">
         <v>57</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="75">
         <v>5.0400000000000002E-3</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="75">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="69">
         <v>58</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="75">
         <v>5.2180000000000004E-3</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="75">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
+      <c r="A48" s="69">
         <v>59</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="75">
         <v>5.5189999999999996E-3</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="75">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+      <c r="A49" s="69">
         <v>60</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="75">
         <v>5.8199999999999997E-3</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="75">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
+      <c r="A50" s="69">
         <v>61</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="75">
         <v>3.6129999999999999E-3</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="75">
         <v>2.7430000000000002E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="69">
         <v>62</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="75">
         <v>3.1110000000000001E-3</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="75">
         <v>1.797E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
+      <c r="A52" s="69">
         <v>63</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="75">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="75">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="69">
         <v>64</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="75">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="75">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
+      <c r="A54" s="69">
         <v>65</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="75">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="75">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="69">
         <v>66</v>
       </c>
-      <c r="B55" s="76">
+      <c r="B55" s="75">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C55" s="76">
+      <c r="C55" s="75">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
+      <c r="A56" s="69">
         <v>67</v>
       </c>
-      <c r="B56" s="76">
+      <c r="B56" s="75">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C56" s="76">
+      <c r="C56" s="75">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="69">
         <v>68</v>
       </c>
-      <c r="B57" s="76">
+      <c r="B57" s="75">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C57" s="76">
+      <c r="C57" s="75">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
+      <c r="A58" s="69">
         <v>69</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="75">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="75">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="69">
         <v>70</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="75">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="75">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
+      <c r="A60" s="69">
         <v>71</v>
       </c>
-      <c r="B60" s="76">
+      <c r="B60" s="75">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="75">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
+      <c r="A61" s="69">
         <v>72</v>
       </c>
-      <c r="B61" s="76">
+      <c r="B61" s="75">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C61" s="76">
+      <c r="C61" s="75">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
+      <c r="A62" s="69">
         <v>73</v>
       </c>
-      <c r="B62" s="76">
+      <c r="B62" s="75">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C62" s="76">
+      <c r="C62" s="75">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="71">
+      <c r="A63" s="70">
         <v>74</v>
       </c>
-      <c r="B63" s="77">
-        <v>0</v>
-      </c>
-      <c r="C63" s="77">
+      <c r="B63" s="76">
+        <v>0</v>
+      </c>
+      <c r="C63" s="76">
         <v>0</v>
       </c>
     </row>
@@ -8113,30 +8133,30 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8157,264 +8177,268 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" style="119"/>
+    <col min="7" max="8" width="13.7109375" style="119" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="119"/>
+    <col min="10" max="10" width="16" style="119" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="119"/>
+    <col min="12" max="12" width="16" style="119" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="119" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="119" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="119"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="120" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="120" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="122" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="36">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="D7" s="121">
+        <v>0</v>
+      </c>
+      <c r="E7" s="122">
         <v>20</v>
       </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48">
+      <c r="F7" s="122">
+        <v>0</v>
+      </c>
+      <c r="G7" s="122">
         <v>3</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="122">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="122">
         <v>1</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="122">
         <v>1</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="122">
         <v>62</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="122">
         <v>5</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="122">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="36">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="D8" s="121">
+        <v>0</v>
+      </c>
+      <c r="E8" s="122">
         <v>20</v>
       </c>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48">
+      <c r="F8" s="122">
+        <v>0</v>
+      </c>
+      <c r="G8" s="122">
         <v>3</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="122">
         <v>0.02</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="122">
         <v>1</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="122">
         <v>1</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="122">
         <v>65</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="122">
         <v>10</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="122">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="36">
-        <v>0</v>
-      </c>
-      <c r="E9" s="48">
+      <c r="D9" s="121">
+        <v>0</v>
+      </c>
+      <c r="E9" s="122">
         <v>20</v>
       </c>
-      <c r="F9" s="48">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48">
+      <c r="F9" s="122">
+        <v>0</v>
+      </c>
+      <c r="G9" s="122">
         <v>3</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="122">
         <v>0.02</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="122">
         <v>1</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="122">
         <v>1</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="122">
         <v>65</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="122">
         <v>10</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="122">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="121" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="36">
-        <v>0</v>
-      </c>
-      <c r="E10" s="48">
+      <c r="D10" s="121">
+        <v>0</v>
+      </c>
+      <c r="E10" s="122">
         <v>20</v>
       </c>
-      <c r="F10" s="48">
-        <v>0</v>
-      </c>
-      <c r="G10" s="48">
+      <c r="F10" s="122">
+        <v>0</v>
+      </c>
+      <c r="G10" s="122">
         <v>3</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="122">
         <v>0.01</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="122">
         <v>1</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="122">
         <v>1</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="122">
         <v>65</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="122">
         <v>10</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="122">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="122">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="36">
-        <v>0</v>
-      </c>
-      <c r="E11" s="48">
+      <c r="D11" s="121">
+        <v>0</v>
+      </c>
+      <c r="E11" s="122">
         <v>20</v>
       </c>
-      <c r="F11" s="48">
-        <v>0</v>
-      </c>
-      <c r="G11" s="48">
+      <c r="F11" s="122">
+        <v>0</v>
+      </c>
+      <c r="G11" s="122">
         <v>3</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="122">
         <v>0.01</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="122">
         <v>1</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="122">
         <v>1</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="122">
         <v>65</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="122">
         <v>10</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="122">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="122">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
@@ -8462,647 +8486,647 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="111"/>
+      <c r="C5" s="110"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="68">
         <v>19</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>3.5500000000000001E-4</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="74">
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="69">
         <v>20</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="75">
         <v>3.9100000000000002E-4</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="75">
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="69">
         <v>21</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="75">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="75">
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="69">
         <v>22</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="75">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="75">
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="69">
         <v>23</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>3.9399999999999998E-4</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="75">
         <v>1.25E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="69">
         <v>24</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="75">
         <v>3.9500000000000001E-4</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="75">
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="69">
         <v>25</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>4.06E-4</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="75">
         <v>1.2899999999999999E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="69">
         <v>26</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="75">
         <v>3.68E-4</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="75">
         <v>1.55E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="69">
         <v>27</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="75">
         <v>3.1599999999999998E-4</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="75">
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="A17" s="69">
         <v>28</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="75">
         <v>1.3899999999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+      <c r="A18" s="69">
         <v>29</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="75">
         <v>3.48E-4</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="75">
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="69">
         <v>30</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>3.9300000000000001E-4</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="75">
         <v>1.65E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="69">
         <v>31</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="75">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="75">
         <v>1.85E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+      <c r="A21" s="69">
         <v>32</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="75">
         <v>4.2099999999999999E-4</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="75">
         <v>2.0799999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
+      <c r="A22" s="69">
         <v>33</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>3.6299999999999999E-4</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="75">
         <v>2.14E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="69">
         <v>34</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="75">
         <v>2.22E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
+      <c r="A24" s="69">
         <v>35</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="75">
         <v>4.4200000000000001E-4</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="75">
         <v>2.4399999999999999E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+      <c r="A25" s="69">
         <v>36</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="75">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="75">
         <v>2.24E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
+      <c r="A26" s="69">
         <v>37</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="75">
         <v>4.37E-4</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="75">
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="69">
         <v>38</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="75">
         <v>4.8700000000000002E-4</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="75">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+      <c r="A28" s="69">
         <v>39</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="75">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="75">
         <v>2.9599999999999998E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="69">
         <v>40</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="75">
         <v>5.0199999999999995E-4</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="75">
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
+      <c r="A30" s="69">
         <v>41</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="75">
         <v>5.5400000000000002E-4</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="75">
         <v>3.8200000000000002E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="69">
         <v>42</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="75">
         <v>6.3900000000000003E-4</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="75">
         <v>4.06E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="69">
         <v>43</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="75">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="75">
         <v>4.0900000000000002E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="A33" s="69">
         <v>44</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="75">
         <v>7.1500000000000003E-4</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="75">
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="A34" s="69">
         <v>45</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="75">
         <v>8.3799999999999999E-4</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="75">
         <v>5.0600000000000005E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="69">
         <v>46</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="75">
         <v>7.76E-4</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="75">
         <v>5.3899999999999998E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="69">
         <v>47</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="75">
         <v>9.1200000000000005E-4</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="75">
         <v>6.6200000000000005E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="69">
         <v>48</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="75">
         <v>1.132E-3</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="75">
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="69">
         <v>49</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="75">
         <v>1.2669999999999999E-3</v>
       </c>
-      <c r="C38" s="76">
+      <c r="C38" s="75">
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="69">
         <v>50</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="75">
         <v>1.3760000000000001E-3</v>
       </c>
-      <c r="C39" s="76">
+      <c r="C39" s="75">
         <v>8.8099999999999995E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+      <c r="A40" s="69">
         <v>51</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="75">
         <v>1.49E-3</v>
       </c>
-      <c r="C40" s="76">
+      <c r="C40" s="75">
         <v>9.3899999999999995E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="69">
         <v>52</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="75">
         <v>1.7340000000000001E-3</v>
       </c>
-      <c r="C41" s="76">
+      <c r="C41" s="75">
         <v>1.0369999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
+      <c r="A42" s="69">
         <v>53</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="75">
         <v>1.769E-3</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="75">
         <v>1.109E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="69">
         <v>54</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="75">
         <v>2.0669999999999998E-3</v>
       </c>
-      <c r="C43" s="76">
+      <c r="C43" s="75">
         <v>1.206E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
+      <c r="A44" s="69">
         <v>55</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="75">
         <v>2.3340000000000001E-3</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="75">
         <v>1.3309999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="69">
         <v>56</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="75">
         <v>2.49E-3</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="75">
         <v>1.423E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
+      <c r="A46" s="69">
         <v>57</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="75">
         <v>2.8700000000000002E-3</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="75">
         <v>1.588E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="69">
         <v>58</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="75">
         <v>2.9650000000000002E-3</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="75">
         <v>1.691E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
+      <c r="A48" s="69">
         <v>59</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="75">
         <v>3.4139999999999999E-3</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="75">
         <v>1.792E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+      <c r="A49" s="69">
         <v>60</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="75">
         <v>3.7880000000000001E-3</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="75">
         <v>1.9589999999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
+      <c r="A50" s="69">
         <v>61</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="75">
         <v>4.0590000000000001E-3</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="75">
         <v>2.137E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="69">
         <v>62</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="75">
         <v>4.6779999999999999E-3</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="75">
         <v>2.2799999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
+      <c r="A52" s="69">
         <v>63</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="75">
         <v>5.5170000000000002E-3</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="75">
         <v>2.539E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="69">
         <v>64</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="75">
         <v>6.1900000000000002E-3</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="75">
         <v>2.7899999999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
+      <c r="A54" s="69">
         <v>65</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="75">
         <v>7.0029999999999997E-3</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="75">
         <v>3.2699999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="69">
         <v>66</v>
       </c>
-      <c r="B55" s="76">
+      <c r="B55" s="75">
         <v>7.5160000000000001E-3</v>
       </c>
-      <c r="C55" s="76">
+      <c r="C55" s="75">
         <v>3.4150000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
+      <c r="A56" s="69">
         <v>67</v>
       </c>
-      <c r="B56" s="76">
+      <c r="B56" s="75">
         <v>9.1769999999999994E-3</v>
       </c>
-      <c r="C56" s="76">
+      <c r="C56" s="75">
         <v>3.6800000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="69">
         <v>68</v>
       </c>
-      <c r="B57" s="76">
+      <c r="B57" s="75">
         <v>9.6109999999999998E-3</v>
       </c>
-      <c r="C57" s="76">
+      <c r="C57" s="75">
         <v>4.4730000000000004E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
+      <c r="A58" s="69">
         <v>69</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="75">
         <v>1.0673999999999999E-2</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="75">
         <v>4.431E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="69">
         <v>70</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="75">
         <v>1.1193E-2</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="75">
         <v>5.0109999999999998E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
+      <c r="A60" s="69">
         <v>71</v>
       </c>
-      <c r="B60" s="76">
+      <c r="B60" s="75">
         <v>1.3648E-2</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="75">
         <v>5.9820000000000003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
+      <c r="A61" s="69">
         <v>72</v>
       </c>
-      <c r="B61" s="76">
+      <c r="B61" s="75">
         <v>1.4447E-2</v>
       </c>
-      <c r="C61" s="76">
+      <c r="C61" s="75">
         <v>6.7559999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
+      <c r="A62" s="69">
         <v>73</v>
       </c>
-      <c r="B62" s="76">
+      <c r="B62" s="75">
         <v>1.7038999999999999E-2</v>
       </c>
-      <c r="C62" s="76">
+      <c r="C62" s="75">
         <v>7.6020000000000003E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="71">
+      <c r="A63" s="70">
         <v>74</v>
       </c>
-      <c r="B63" s="77">
-        <v>0</v>
-      </c>
-      <c r="C63" s="77">
+      <c r="B63" s="76">
+        <v>0</v>
+      </c>
+      <c r="C63" s="76">
         <v>0</v>
       </c>
     </row>
@@ -9156,1169 +9180,1169 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="118"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="116"/>
+      <c r="B6" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="77" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="78" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+      <c r="A8" s="79">
         <v>50</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>4.1929999999999997E-3</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>2.5560000000000001E-3</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="82">
         <v>2.1038000000000001E-2</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="82">
         <v>1.1939999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="80">
         <v>51</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>4.5269999999999998E-3</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="83">
         <v>2.7409999999999999E-3</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="83">
         <v>2.1703E-2</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="83">
         <v>1.2501E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="80">
         <v>52</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>4.8700000000000002E-3</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>2.869E-3</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="83">
         <v>2.2357999999999999E-2</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="83">
         <v>1.3063E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="80">
         <v>53</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>5.1879999999999999E-3</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>3.0249999999999999E-3</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="83">
         <v>2.2852999999999998E-2</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="83">
         <v>1.3634E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+      <c r="A12" s="80">
         <v>54</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>5.5059999999999996E-3</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="83">
         <v>3.1809999999999998E-3</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="83">
         <v>2.3307999999999999E-2</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="83">
         <v>1.4203E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+      <c r="A13" s="80">
         <v>55</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>5.8329999999999996E-3</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="83">
         <v>3.4390000000000002E-3</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="83">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="83">
         <v>1.4768E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="80">
         <v>56</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>6.1729999999999997E-3</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="83">
         <v>3.64E-3</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="83">
         <v>2.4244000000000002E-2</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="83">
         <v>1.5334E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="81">
+      <c r="A15" s="80">
         <v>57</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>6.5339999999999999E-3</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="83">
         <v>3.9579999999999997E-3</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="83">
         <v>2.477E-2</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="83">
         <v>1.5893999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="81">
+      <c r="A16" s="80">
         <v>58</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>6.9199999999999999E-3</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="83">
         <v>4.2989999999999999E-3</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="83">
         <v>2.5347999999999999E-2</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="83">
         <v>1.6452999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+      <c r="A17" s="80">
         <v>59</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>7.3379999999999999E-3</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="83">
         <v>4.6540000000000002E-3</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="83">
         <v>2.5984E-2</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="83">
         <v>1.7028999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+      <c r="A18" s="80">
         <v>60</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>7.7990000000000004E-3</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="83">
         <v>5.071E-3</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="83">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="83">
         <v>1.7614999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="81">
+      <c r="A19" s="80">
         <v>61</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>8.3119999999999999E-3</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="83">
         <v>5.5030000000000001E-3</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="83">
         <v>2.7507E-2</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="83">
         <v>1.8256999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+      <c r="A20" s="80">
         <v>62</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>8.8920000000000006E-3</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="83">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="83">
         <v>2.8433E-2</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="83">
         <v>1.8957000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+      <c r="A21" s="80">
         <v>63</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>9.554E-3</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="83">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="83">
         <v>2.9505E-2</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="83">
         <v>1.9748000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+      <c r="A22" s="80">
         <v>64</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>1.0309E-2</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="83">
         <v>7.2230000000000003E-3</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="83">
         <v>3.0731000000000001E-2</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="83">
         <v>2.0663000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+      <c r="A23" s="80">
         <v>65</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>1.1169E-2</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>7.8919999999999997E-3</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="83">
         <v>3.2134999999999997E-2</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="83">
         <v>2.1715000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="A24" s="80">
         <v>66</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <v>1.2142999999999999E-2</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="83">
         <v>8.6499999999999997E-3</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="83">
         <v>3.3711999999999999E-2</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="83">
         <v>2.2922999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+      <c r="A25" s="80">
         <v>67</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>1.3242E-2</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="83">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="83">
         <v>3.5465999999999998E-2</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="83">
         <v>2.4315E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+      <c r="A26" s="80">
         <v>68</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="83">
         <v>1.4484E-2</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="83">
         <v>1.0465E-2</v>
       </c>
-      <c r="D26" s="84">
+      <c r="D26" s="83">
         <v>3.7429999999999998E-2</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="83">
         <v>2.5898999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+      <c r="A27" s="80">
         <v>69</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="83">
         <v>1.5882E-2</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="83">
         <v>1.1528999999999999E-2</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="83">
         <v>3.9600999999999997E-2</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="83">
         <v>2.7681000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
+      <c r="A28" s="80">
         <v>70</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="83">
         <v>1.7451000000000001E-2</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="83">
         <v>1.2706E-2</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="83">
         <v>4.1986000000000002E-2</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="83">
         <v>2.9672E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="81">
+      <c r="A29" s="80">
         <v>71</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="83">
         <v>1.9195E-2</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="83">
         <v>1.3983000000000001E-2</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="83">
         <v>4.4581000000000003E-2</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="83">
         <v>3.1898999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="81">
+      <c r="A30" s="80">
         <v>72</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="83">
         <v>2.1156000000000001E-2</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="83">
         <v>1.5469E-2</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="83">
         <v>4.7446000000000002E-2</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="83">
         <v>3.4358E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="81">
+      <c r="A31" s="80">
         <v>73</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="83">
         <v>2.3337E-2</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="83">
         <v>1.6990999999999999E-2</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="83">
         <v>5.0556999999999998E-2</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="83">
         <v>3.7082999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="81">
+      <c r="A32" s="80">
         <v>74</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="83">
         <v>2.5766000000000001E-2</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="83">
         <v>1.8807999999999998E-2</v>
       </c>
-      <c r="D32" s="84">
+      <c r="D32" s="83">
         <v>5.3940000000000002E-2</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="83">
         <v>4.0087999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="81">
+      <c r="A33" s="80">
         <v>75</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="83">
         <v>2.8482E-2</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="83">
         <v>2.0775999999999999E-2</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="83">
         <v>5.7639000000000003E-2</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="83">
         <v>4.3392E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="81">
+      <c r="A34" s="80">
         <v>76</v>
       </c>
-      <c r="B34" s="84">
+      <c r="B34" s="83">
         <v>3.1517000000000003E-2</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="83">
         <v>2.2922000000000001E-2</v>
       </c>
-      <c r="D34" s="84">
+      <c r="D34" s="83">
         <v>6.1669000000000002E-2</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="83">
         <v>4.7003999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="81">
+      <c r="A35" s="80">
         <v>77</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="83">
         <v>3.4923999999999997E-2</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="83">
         <v>2.5277999999999998E-2</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="83">
         <v>6.6087000000000007E-2</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E35" s="83">
         <v>5.0992000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="81">
+      <c r="A36" s="80">
         <v>78</v>
       </c>
-      <c r="B36" s="84">
+      <c r="B36" s="83">
         <v>3.8740999999999998E-2</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="83">
         <v>2.8080000000000001E-2</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="83">
         <v>7.0909E-2</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="83">
         <v>5.5336999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="81">
+      <c r="A37" s="80">
         <v>79</v>
       </c>
-      <c r="B37" s="84">
+      <c r="B37" s="83">
         <v>4.3032000000000001E-2</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="83">
         <v>3.1167E-2</v>
       </c>
-      <c r="D37" s="84">
+      <c r="D37" s="83">
         <v>7.6191999999999996E-2</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="83">
         <v>6.0074000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="81">
+      <c r="A38" s="80">
         <v>80</v>
       </c>
-      <c r="B38" s="84">
+      <c r="B38" s="83">
         <v>4.7877000000000003E-2</v>
       </c>
-      <c r="C38" s="84">
+      <c r="C38" s="83">
         <v>3.4653999999999997E-2</v>
       </c>
-      <c r="D38" s="84">
+      <c r="D38" s="83">
         <v>8.2020999999999997E-2</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="83">
         <v>6.5215999999999996E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="81">
+      <c r="A39" s="80">
         <v>81</v>
       </c>
-      <c r="B39" s="84">
+      <c r="B39" s="83">
         <v>5.3323000000000002E-2</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="83">
         <v>3.8705999999999997E-2</v>
       </c>
-      <c r="D39" s="84">
+      <c r="D39" s="83">
         <v>8.8413000000000005E-2</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="83">
         <v>7.0822999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="82">
+      <c r="A40" s="81">
         <v>82</v>
       </c>
-      <c r="B40" s="85">
+      <c r="B40" s="84">
         <v>5.9471999999999997E-2</v>
       </c>
-      <c r="C40" s="85">
+      <c r="C40" s="84">
         <v>4.3188999999999998E-2</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="84">
         <v>9.5469999999999999E-2</v>
       </c>
-      <c r="E40" s="85">
+      <c r="E40" s="84">
         <v>7.6855999999999994E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="80">
+      <c r="A41" s="79">
         <v>83</v>
       </c>
-      <c r="B41" s="83">
+      <c r="B41" s="82">
         <v>6.6387000000000002E-2</v>
       </c>
-      <c r="C41" s="83">
+      <c r="C41" s="82">
         <v>4.8592999999999997E-2</v>
       </c>
-      <c r="D41" s="83">
+      <c r="D41" s="82">
         <v>0.10323300000000001</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="82">
         <v>8.3399000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="81">
+      <c r="A42" s="80">
         <v>84</v>
       </c>
-      <c r="B42" s="84">
+      <c r="B42" s="83">
         <v>7.4195999999999998E-2</v>
       </c>
-      <c r="C42" s="84">
+      <c r="C42" s="83">
         <v>5.4351999999999998E-2</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D42" s="83">
         <v>0.111831</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="83">
         <v>9.0454000000000007E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="81">
+      <c r="A43" s="80">
         <v>85</v>
       </c>
-      <c r="B43" s="84">
+      <c r="B43" s="83">
         <v>8.2932000000000006E-2</v>
       </c>
-      <c r="C43" s="84">
+      <c r="C43" s="83">
         <v>6.1115000000000003E-2</v>
       </c>
-      <c r="D43" s="84">
+      <c r="D43" s="83">
         <v>0.121249</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="83">
         <v>9.8012000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="81">
+      <c r="A44" s="80">
         <v>86</v>
       </c>
-      <c r="B44" s="84">
+      <c r="B44" s="83">
         <v>9.2705999999999997E-2</v>
       </c>
-      <c r="C44" s="84">
+      <c r="C44" s="83">
         <v>6.8409999999999999E-2</v>
       </c>
-      <c r="D44" s="84">
+      <c r="D44" s="83">
         <v>0.13158900000000001</v>
       </c>
-      <c r="E44" s="84">
+      <c r="E44" s="83">
         <v>0.106125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="81">
+      <c r="A45" s="80">
         <v>87</v>
       </c>
-      <c r="B45" s="84">
+      <c r="B45" s="83">
         <v>0.103659</v>
       </c>
-      <c r="C45" s="84">
+      <c r="C45" s="83">
         <v>7.6642000000000002E-2</v>
       </c>
-      <c r="D45" s="84">
+      <c r="D45" s="83">
         <v>0.142982</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="83">
         <v>0.114756</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="81">
+      <c r="A46" s="80">
         <v>88</v>
       </c>
-      <c r="B46" s="84">
+      <c r="B46" s="83">
         <v>0.115809</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="83">
         <v>8.5860000000000006E-2</v>
       </c>
-      <c r="D46" s="84">
+      <c r="D46" s="83">
         <v>0.15538099999999999</v>
       </c>
-      <c r="E46" s="84">
+      <c r="E46" s="83">
         <v>0.123866</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="81">
+      <c r="A47" s="80">
         <v>89</v>
       </c>
-      <c r="B47" s="84">
+      <c r="B47" s="83">
         <v>0.12932099999999999</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C47" s="83">
         <v>9.6109E-2</v>
       </c>
-      <c r="D47" s="84">
+      <c r="D47" s="83">
         <v>0.168932</v>
       </c>
-      <c r="E47" s="84">
+      <c r="E47" s="83">
         <v>0.133466</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="81">
+      <c r="A48" s="80">
         <v>90</v>
       </c>
-      <c r="B48" s="84">
+      <c r="B48" s="83">
         <v>0.14427200000000001</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C48" s="83">
         <v>0.10763200000000001</v>
       </c>
-      <c r="D48" s="84">
+      <c r="D48" s="83">
         <v>0.18365200000000001</v>
       </c>
-      <c r="E48" s="84">
+      <c r="E48" s="83">
         <v>0.143701</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="81">
+      <c r="A49" s="80">
         <v>91</v>
       </c>
-      <c r="B49" s="84">
+      <c r="B49" s="83">
         <v>0.16012399999999999</v>
       </c>
-      <c r="C49" s="84">
+      <c r="C49" s="83">
         <v>0.119724</v>
       </c>
-      <c r="D49" s="84">
+      <c r="D49" s="83">
         <v>0.19836899999999999</v>
       </c>
-      <c r="E49" s="84">
+      <c r="E49" s="83">
         <v>0.15490599999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="81">
+      <c r="A50" s="80">
         <v>92</v>
       </c>
-      <c r="B50" s="84">
+      <c r="B50" s="83">
         <v>0.17643700000000001</v>
       </c>
-      <c r="C50" s="84">
+      <c r="C50" s="83">
         <v>0.13281799999999999</v>
       </c>
-      <c r="D50" s="84">
+      <c r="D50" s="83">
         <v>0.212982</v>
       </c>
-      <c r="E50" s="84">
+      <c r="E50" s="83">
         <v>0.16706399999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="81">
+      <c r="A51" s="80">
         <v>93</v>
       </c>
-      <c r="B51" s="84">
+      <c r="B51" s="83">
         <v>0.19293099999999999</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="83">
         <v>0.14646300000000001</v>
       </c>
-      <c r="D51" s="84">
+      <c r="D51" s="83">
         <v>0.22741600000000001</v>
       </c>
-      <c r="E51" s="84">
+      <c r="E51" s="83">
         <v>0.17996400000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="81">
+      <c r="A52" s="80">
         <v>94</v>
       </c>
-      <c r="B52" s="84">
+      <c r="B52" s="83">
         <v>0.20955499999999999</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="83">
         <v>0.16056000000000001</v>
       </c>
-      <c r="D52" s="84">
+      <c r="D52" s="83">
         <v>0.241727</v>
       </c>
-      <c r="E52" s="84">
+      <c r="E52" s="83">
         <v>0.19351199999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="81">
+      <c r="A53" s="80">
         <v>95</v>
       </c>
-      <c r="B53" s="84">
+      <c r="B53" s="83">
         <v>0.22620599999999999</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="83">
         <v>0.175231</v>
       </c>
-      <c r="D53" s="84">
+      <c r="D53" s="83">
         <v>0.25581700000000002</v>
       </c>
-      <c r="E53" s="84">
+      <c r="E53" s="83">
         <v>0.20766100000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="81">
+      <c r="A54" s="80">
         <v>96</v>
       </c>
-      <c r="B54" s="84">
+      <c r="B54" s="83">
         <v>0.244336</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="83">
         <v>0.19181400000000001</v>
       </c>
-      <c r="D54" s="84">
+      <c r="D54" s="83">
         <v>0.27127099999999998</v>
       </c>
-      <c r="E54" s="84">
+      <c r="E54" s="83">
         <v>0.223077</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="81">
+      <c r="A55" s="80">
         <v>97</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="83">
         <v>0.262934</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="83">
         <v>0.207561</v>
       </c>
-      <c r="D55" s="84">
+      <c r="D55" s="83">
         <v>0.28686800000000001</v>
       </c>
-      <c r="E55" s="84">
+      <c r="E55" s="83">
         <v>0.239119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="81">
+      <c r="A56" s="80">
         <v>98</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="83">
         <v>0.28220299999999998</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="83">
         <v>0.224075</v>
       </c>
-      <c r="D56" s="84">
+      <c r="D56" s="83">
         <v>0.30279499999999998</v>
       </c>
-      <c r="E56" s="84">
+      <c r="E56" s="83">
         <v>0.25581700000000002</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="81">
+      <c r="A57" s="80">
         <v>99</v>
       </c>
-      <c r="B57" s="84">
+      <c r="B57" s="83">
         <v>0.30202600000000002</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="83">
         <v>0.242783</v>
       </c>
-      <c r="D57" s="84">
+      <c r="D57" s="83">
         <v>0.31895600000000002</v>
       </c>
-      <c r="E57" s="84">
+      <c r="E57" s="83">
         <v>0.27298299999999998</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="81">
+      <c r="A58" s="80">
         <v>100</v>
       </c>
-      <c r="B58" s="84">
+      <c r="B58" s="83">
         <v>0.32213599999999998</v>
       </c>
-      <c r="C58" s="84">
+      <c r="C58" s="83">
         <v>0.261237</v>
       </c>
-      <c r="D58" s="84">
+      <c r="D58" s="83">
         <v>0.33519399999999999</v>
       </c>
-      <c r="E58" s="84">
+      <c r="E58" s="83">
         <v>0.290601</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="81">
+      <c r="A59" s="80">
         <v>101</v>
       </c>
-      <c r="B59" s="84">
+      <c r="B59" s="83">
         <v>0.34241500000000002</v>
       </c>
-      <c r="C59" s="84">
+      <c r="C59" s="83">
         <v>0.28054000000000001</v>
       </c>
-      <c r="D59" s="84">
+      <c r="D59" s="83">
         <v>0.35164299999999998</v>
       </c>
-      <c r="E59" s="84">
+      <c r="E59" s="83">
         <v>0.30860300000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="81">
+      <c r="A60" s="80">
         <v>102</v>
       </c>
-      <c r="B60" s="84">
+      <c r="B60" s="83">
         <v>0.36243599999999998</v>
       </c>
-      <c r="C60" s="84">
+      <c r="C60" s="83">
         <v>0.29914499999999999</v>
       </c>
-      <c r="D60" s="84">
+      <c r="D60" s="83">
         <v>0.36827199999999999</v>
       </c>
-      <c r="E60" s="84">
+      <c r="E60" s="83">
         <v>0.326959</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="81">
+      <c r="A61" s="80">
         <v>103</v>
       </c>
-      <c r="B61" s="84">
+      <c r="B61" s="83">
         <v>0.38221899999999998</v>
       </c>
-      <c r="C61" s="84">
+      <c r="C61" s="83">
         <v>0.317332</v>
       </c>
-      <c r="D61" s="84">
+      <c r="D61" s="83">
         <v>0.38527899999999998</v>
       </c>
-      <c r="E61" s="84">
+      <c r="E61" s="83">
         <v>0.34557599999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="81">
+      <c r="A62" s="80">
         <v>104</v>
       </c>
-      <c r="B62" s="84">
+      <c r="B62" s="83">
         <v>0.40142600000000001</v>
       </c>
-      <c r="C62" s="84">
+      <c r="C62" s="83">
         <v>0.33612599999999998</v>
       </c>
-      <c r="D62" s="84">
+      <c r="D62" s="83">
         <v>0.40248899999999999</v>
       </c>
-      <c r="E62" s="84">
+      <c r="E62" s="83">
         <v>0.36431799999999998</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="81">
+      <c r="A63" s="80">
         <v>105</v>
       </c>
-      <c r="B63" s="84">
+      <c r="B63" s="83">
         <v>0.41986499999999999</v>
       </c>
-      <c r="C63" s="84">
+      <c r="C63" s="83">
         <v>0.35540100000000002</v>
       </c>
-      <c r="D63" s="84">
+      <c r="D63" s="83">
         <v>0.41986499999999999</v>
       </c>
-      <c r="E63" s="84">
+      <c r="E63" s="83">
         <v>0.38322699999999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="81">
+      <c r="A64" s="80">
         <v>106</v>
       </c>
-      <c r="B64" s="84">
+      <c r="B64" s="83">
         <v>0.437668</v>
       </c>
-      <c r="C64" s="84">
+      <c r="C64" s="83">
         <v>0.375944</v>
       </c>
-      <c r="D64" s="84">
+      <c r="D64" s="83">
         <v>0.437668</v>
       </c>
-      <c r="E64" s="84">
+      <c r="E64" s="83">
         <v>0.40228799999999998</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="81">
+      <c r="A65" s="80">
         <v>107</v>
       </c>
-      <c r="B65" s="84">
+      <c r="B65" s="83">
         <v>0.454347</v>
       </c>
-      <c r="C65" s="84">
+      <c r="C65" s="83">
         <v>0.388598</v>
       </c>
-      <c r="D65" s="84">
+      <c r="D65" s="83">
         <v>0.454347</v>
       </c>
-      <c r="E65" s="84">
+      <c r="E65" s="83">
         <v>0.42046099999999997</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="81">
+      <c r="A66" s="80">
         <v>108</v>
       </c>
-      <c r="B66" s="84">
+      <c r="B66" s="83">
         <v>0.47012799999999999</v>
       </c>
-      <c r="C66" s="84">
+      <c r="C66" s="83">
         <v>0.399982</v>
       </c>
-      <c r="D66" s="84">
+      <c r="D66" s="83">
         <v>0.47012799999999999</v>
       </c>
-      <c r="E66" s="84">
+      <c r="E66" s="83">
         <v>0.43795499999999998</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="81">
+      <c r="A67" s="80">
         <v>109</v>
       </c>
-      <c r="B67" s="84">
+      <c r="B67" s="83">
         <v>0.48492499999999999</v>
       </c>
-      <c r="C67" s="84">
+      <c r="C67" s="83">
         <v>0.43267099999999997</v>
       </c>
-      <c r="D67" s="84">
+      <c r="D67" s="83">
         <v>0.48492499999999999</v>
       </c>
-      <c r="E67" s="84">
+      <c r="E67" s="83">
         <v>0.45436900000000002</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="81">
+      <c r="A68" s="80">
         <v>110</v>
       </c>
-      <c r="B68" s="84">
+      <c r="B68" s="83">
         <v>0.498558</v>
       </c>
-      <c r="C68" s="84">
+      <c r="C68" s="83">
         <v>0.46975299999999998</v>
       </c>
-      <c r="D68" s="84">
+      <c r="D68" s="83">
         <v>0.498558</v>
       </c>
-      <c r="E68" s="84">
+      <c r="E68" s="83">
         <v>0.46975299999999998</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="81">
+      <c r="A69" s="80">
         <v>111</v>
       </c>
-      <c r="B69" s="84">
+      <c r="B69" s="83">
         <v>0.50341899999999995</v>
       </c>
-      <c r="C69" s="84">
+      <c r="C69" s="83">
         <v>0.455181</v>
       </c>
-      <c r="D69" s="84">
+      <c r="D69" s="83">
         <v>0.50341899999999995</v>
       </c>
-      <c r="E69" s="84">
+      <c r="E69" s="83">
         <v>0.48410599999999998</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="81">
+      <c r="A70" s="80">
         <v>112</v>
       </c>
-      <c r="B70" s="84">
+      <c r="B70" s="83">
         <v>0.50251000000000001</v>
       </c>
-      <c r="C70" s="84">
+      <c r="C70" s="83">
         <v>0.49745499999999998</v>
       </c>
-      <c r="D70" s="84">
+      <c r="D70" s="83">
         <v>0.50251000000000001</v>
       </c>
-      <c r="E70" s="84">
+      <c r="E70" s="83">
         <v>0.49745499999999998</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="81">
+      <c r="A71" s="80">
         <v>113</v>
       </c>
-      <c r="B71" s="84">
+      <c r="B71" s="83">
         <v>0.50175499999999995</v>
       </c>
-      <c r="C71" s="84">
+      <c r="C71" s="83">
         <v>0.50301399999999996</v>
       </c>
-      <c r="D71" s="84">
+      <c r="D71" s="83">
         <v>0.50175499999999995</v>
       </c>
-      <c r="E71" s="84">
+      <c r="E71" s="83">
         <v>0.50301399999999996</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="81">
+      <c r="A72" s="80">
         <v>114</v>
       </c>
-      <c r="B72" s="84">
+      <c r="B72" s="83">
         <v>0.50090199999999996</v>
       </c>
-      <c r="C72" s="84">
+      <c r="C72" s="83">
         <v>0.50140300000000004</v>
       </c>
-      <c r="D72" s="84">
+      <c r="D72" s="83">
         <v>0.50090199999999996</v>
       </c>
-      <c r="E72" s="84">
+      <c r="E72" s="83">
         <v>0.50140300000000004</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="82">
+      <c r="A73" s="81">
         <v>115</v>
       </c>
-      <c r="B73" s="85">
+      <c r="B73" s="84">
         <v>0.5</v>
       </c>
-      <c r="C73" s="85">
+      <c r="C73" s="84">
         <v>0.5</v>
       </c>
-      <c r="D73" s="85">
+      <c r="D73" s="84">
         <v>0.5</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="84">
         <v>0.5</v>
       </c>
     </row>
@@ -10420,10 +10444,10 @@
       <c r="C6">
         <v>2015</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <v>30902000000</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>30902000000</v>
       </c>
       <c r="G6" t="s">
@@ -10437,16 +10461,16 @@
       <c r="C7">
         <v>2016</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>32311000000</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>32311000000</v>
       </c>
       <c r="G7" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>0.02</v>
       </c>
     </row>
@@ -10454,10 +10478,10 @@
       <c r="C8">
         <v>2017</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>32971000000</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>32971000000</v>
       </c>
     </row>
@@ -10465,10 +10489,10 @@
       <c r="C9">
         <v>2018</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>34176000000</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>34176000000</v>
       </c>
     </row>
@@ -10476,10 +10500,10 @@
       <c r="C10">
         <v>2019</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>35379000000</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>35379000000</v>
       </c>
     </row>
@@ -10487,10 +10511,10 @@
       <c r="C11">
         <v>2020</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>36758000000</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>36758000000</v>
       </c>
     </row>
@@ -10498,10 +10522,10 @@
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>37936000000</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>37936000000</v>
       </c>
     </row>
@@ -10512,7 +10536,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <f t="shared" ref="E13:E36" si="0">E12*(1 + H$5)</f>
         <v>39187888000</v>
       </c>
@@ -10524,7 +10548,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <f t="shared" si="0"/>
         <v>40481088304</v>
       </c>
@@ -10536,7 +10560,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <f t="shared" si="0"/>
         <v>41816964218.031998</v>
       </c>
@@ -10548,7 +10572,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="46">
         <f t="shared" si="0"/>
         <v>43196924037.227051</v>
       </c>
@@ -10560,7 +10584,7 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <f t="shared" si="0"/>
         <v>44622422530.455544</v>
       </c>
@@ -10572,7 +10596,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <f t="shared" si="0"/>
         <v>46094962473.960571</v>
       </c>
@@ -10584,7 +10608,7 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <f t="shared" si="0"/>
         <v>47616096235.601265</v>
       </c>
@@ -10596,7 +10620,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <f t="shared" si="0"/>
         <v>49187427411.376106</v>
       </c>
@@ -10608,7 +10632,7 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <f t="shared" si="0"/>
         <v>50810612515.951515</v>
       </c>
@@ -10620,7 +10644,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="46">
         <f t="shared" si="0"/>
         <v>52487362728.977913</v>
       </c>
@@ -10632,7 +10656,7 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="46">
         <f t="shared" si="0"/>
         <v>54219445699.03418</v>
       </c>
@@ -10644,7 +10668,7 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="46">
         <f t="shared" si="0"/>
         <v>56008687407.102303</v>
       </c>
@@ -10656,7 +10680,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="46">
         <f t="shared" si="0"/>
         <v>57856974091.536674</v>
       </c>
@@ -10668,7 +10692,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="46">
         <f t="shared" si="0"/>
         <v>59766254236.557381</v>
       </c>
@@ -10680,7 +10704,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="46">
         <f t="shared" si="0"/>
         <v>61738540626.36377</v>
       </c>
@@ -10692,7 +10716,7 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="46">
         <f t="shared" si="0"/>
         <v>63775912467.033768</v>
       </c>
@@ -10704,7 +10728,7 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="46">
         <f t="shared" si="0"/>
         <v>65880517578.445877</v>
       </c>
@@ -10716,7 +10740,7 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="46">
         <f t="shared" si="0"/>
         <v>68054574658.534584</v>
       </c>
@@ -10728,7 +10752,7 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="46">
         <f t="shared" si="0"/>
         <v>70300375622.26622</v>
       </c>
@@ -10740,7 +10764,7 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="46">
         <f t="shared" si="0"/>
         <v>72620288017.800995</v>
       </c>
@@ -10752,7 +10776,7 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="46">
         <f t="shared" si="0"/>
         <v>75016757522.388428</v>
       </c>
@@ -10764,7 +10788,7 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="46">
         <f t="shared" si="0"/>
         <v>77492310520.627243</v>
       </c>
@@ -10776,7 +10800,7 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="46">
         <f t="shared" si="0"/>
         <v>80049556767.807938</v>
       </c>
@@ -10788,7 +10812,7 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="46">
         <f t="shared" si="0"/>
         <v>82691192141.145599</v>
       </c>
@@ -10829,11 +10853,11 @@
         <v>78047</v>
       </c>
       <c r="P5">
-        <f>SUM(N5:O5)</f>
+        <f t="shared" ref="P5:P10" si="0">SUM(N5:O5)</f>
         <v>108382</v>
       </c>
       <c r="Q5">
-        <f>P5/P$10</f>
+        <f t="shared" ref="Q5:Q10" si="1">P5/P$10</f>
         <v>0.54157151780137414</v>
       </c>
     </row>
@@ -10848,11 +10872,11 @@
         <v>29069</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P10" si="0">SUM(N6:O6)</f>
+        <f t="shared" si="0"/>
         <v>39021</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q10" si="1">P6/P$10</f>
+        <f t="shared" si="1"/>
         <v>0.19498313554028732</v>
       </c>
     </row>
@@ -10943,7 +10967,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10985,40 +11009,40 @@
       <c r="D6" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="47" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11029,40 +11053,40 @@
       <c r="D7" s="36">
         <v>0</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>20</v>
       </c>
-      <c r="F7" s="48">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48">
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="47">
         <v>3</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="47">
         <v>1</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="47">
         <v>1</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="47">
         <v>62</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="47">
         <v>5</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N7" s="48">
-        <v>0</v>
-      </c>
-      <c r="O7" s="48">
+      <c r="N7" s="47">
+        <v>0</v>
+      </c>
+      <c r="O7" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="47">
         <v>0</v>
       </c>
     </row>
@@ -11073,40 +11097,40 @@
       <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <v>20</v>
       </c>
-      <c r="F8" s="48">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48">
+      <c r="F8" s="47">
+        <v>0</v>
+      </c>
+      <c r="G8" s="47">
         <v>3</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="47">
         <v>0.02</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="47">
         <v>1</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="47">
         <v>1</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="47">
         <v>65</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="47">
         <v>10</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="47">
         <v>0.5</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="47">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="47">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -11117,40 +11141,40 @@
       <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <v>20</v>
       </c>
-      <c r="F9" s="48">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48">
+      <c r="F9" s="47">
+        <v>0</v>
+      </c>
+      <c r="G9" s="47">
         <v>3</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="47">
         <v>0.02</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="47">
         <v>1</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="47">
         <v>1</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="47">
         <v>65</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="47">
         <v>10</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="47">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="47">
         <v>0.5</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="47">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="47">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
@@ -11217,15 +11241,15 @@
         <f>3974+207425</f>
         <v>211399</v>
       </c>
-      <c r="C71" s="45">
+      <c r="C71" s="44">
         <f>1000*(188002+11204863)/B71</f>
         <v>53892.709993897792</v>
       </c>
-      <c r="D71" s="88">
+      <c r="D71" s="87">
         <f>(3974*51.2+207425*46.6)/B71</f>
         <v>46.686473445948188</v>
       </c>
-      <c r="E71" s="88">
+      <c r="E71" s="87">
         <f>(3974*17.8+207425*13.3)/B71</f>
         <v>13.384593588427572</v>
       </c>
@@ -11241,7 +11265,7 @@
       <c r="B72">
         <v>48628</v>
       </c>
-      <c r="C72" s="45">
+      <c r="C72" s="44">
         <f>1000*1308000/B72</f>
         <v>26898.083408735707</v>
       </c>
@@ -11263,7 +11287,7 @@
       <c r="B73">
         <v>9293</v>
       </c>
-      <c r="C73" s="45">
+      <c r="C73" s="44">
         <f>1000*342190/B73</f>
         <v>36822.339395243733</v>
       </c>
@@ -11420,7 +11444,7 @@
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="60" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -11586,7 +11610,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>47</v>
       </c>
@@ -11606,7 +11630,7 @@
       <c r="A7" s="32">
         <v>19</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="61">
         <v>0.10249999999999999</v>
       </c>
       <c r="E7" t="s">
@@ -11617,7 +11641,7 @@
       <c r="A8" s="33">
         <v>20</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="62">
         <v>0.10249999999999999</v>
       </c>
     </row>
@@ -11625,7 +11649,7 @@
       <c r="A9" s="33">
         <v>21</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="62">
         <v>0.10050000000000001</v>
       </c>
     </row>
@@ -11633,7 +11657,7 @@
       <c r="A10" s="33">
         <v>22</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="62">
         <v>9.849999999999999E-2</v>
       </c>
     </row>
@@ -11641,7 +11665,7 @@
       <c r="A11" s="33">
         <v>23</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="62">
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
@@ -11649,7 +11673,7 @@
       <c r="A12" s="33">
         <v>24</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="62">
         <v>9.4499999999999987E-2</v>
       </c>
     </row>
@@ -11657,7 +11681,7 @@
       <c r="A13" s="33">
         <v>25</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="62">
         <v>9.2499999999999999E-2</v>
       </c>
     </row>
@@ -11665,7 +11689,7 @@
       <c r="A14" s="33">
         <v>26</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="62">
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
@@ -11673,7 +11697,7 @@
       <c r="A15" s="33">
         <v>27</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="62">
         <v>8.6500000000000007E-2</v>
       </c>
     </row>
@@ -11681,7 +11705,7 @@
       <c r="A16" s="33">
         <v>28</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="62">
         <v>8.3499999999999991E-2</v>
       </c>
     </row>
@@ -11689,7 +11713,7 @@
       <c r="A17" s="33">
         <v>29</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="62">
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
@@ -11697,7 +11721,7 @@
       <c r="A18" s="33">
         <v>30</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="62">
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
@@ -11705,7 +11729,7 @@
       <c r="A19" s="33">
         <v>31</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="62">
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
@@ -11713,7 +11737,7 @@
       <c r="A20" s="33">
         <v>32</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="62">
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
@@ -11721,7 +11745,7 @@
       <c r="A21" s="33">
         <v>33</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="62">
         <v>7.1500000000000008E-2</v>
       </c>
     </row>
@@ -11729,7 +11753,7 @@
       <c r="A22" s="33">
         <v>34</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="62">
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
@@ -11737,7 +11761,7 @@
       <c r="A23" s="33">
         <v>35</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="62">
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
@@ -11745,7 +11769,7 @@
       <c r="A24" s="33">
         <v>36</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="62">
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
@@ -11753,7 +11777,7 @@
       <c r="A25" s="33">
         <v>37</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="62">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
@@ -11761,7 +11785,7 @@
       <c r="A26" s="33">
         <v>38</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="62">
         <v>6.1500000000000006E-2</v>
       </c>
     </row>
@@ -11769,7 +11793,7 @@
       <c r="A27" s="33">
         <v>39</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="62">
         <v>5.9500000000000004E-2</v>
       </c>
     </row>
@@ -11777,7 +11801,7 @@
       <c r="A28" s="33">
         <v>40</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="62">
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
@@ -11785,7 +11809,7 @@
       <c r="A29" s="33">
         <v>41</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="62">
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
@@ -11793,7 +11817,7 @@
       <c r="A30" s="33">
         <v>42</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="62">
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
@@ -11801,7 +11825,7 @@
       <c r="A31" s="33">
         <v>43</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="62">
         <v>5.1500000000000004E-2</v>
       </c>
     </row>
@@ -11809,7 +11833,7 @@
       <c r="A32" s="33">
         <v>44</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="62">
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -11817,7 +11841,7 @@
       <c r="A33" s="33">
         <v>45</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="62">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
@@ -11825,7 +11849,7 @@
       <c r="A34" s="33">
         <v>46</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="63">
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
@@ -11833,7 +11857,7 @@
       <c r="A35" s="33">
         <v>47</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="61">
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
@@ -11841,7 +11865,7 @@
       <c r="A36" s="33">
         <v>48</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="62">
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
@@ -11849,7 +11873,7 @@
       <c r="A37" s="33">
         <v>49</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="62">
         <v>3.95E-2</v>
       </c>
     </row>
@@ -11857,7 +11881,7 @@
       <c r="A38" s="33">
         <v>50</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="62">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -11865,7 +11889,7 @@
       <c r="A39" s="33">
         <v>51</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="62">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
@@ -11873,7 +11897,7 @@
       <c r="A40" s="33">
         <v>52</v>
       </c>
-      <c r="B40" s="63">
+      <c r="B40" s="62">
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
@@ -11881,7 +11905,7 @@
       <c r="A41" s="33">
         <v>53</v>
       </c>
-      <c r="B41" s="63">
+      <c r="B41" s="62">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -11889,7 +11913,7 @@
       <c r="A42" s="33">
         <v>54</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="62">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
@@ -11897,7 +11921,7 @@
       <c r="A43" s="33">
         <v>55</v>
       </c>
-      <c r="B43" s="63">
+      <c r="B43" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11905,7 +11929,7 @@
       <c r="A44" s="33">
         <v>56</v>
       </c>
-      <c r="B44" s="63">
+      <c r="B44" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11913,7 +11937,7 @@
       <c r="A45" s="33">
         <v>57</v>
       </c>
-      <c r="B45" s="63">
+      <c r="B45" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11921,7 +11945,7 @@
       <c r="A46" s="33">
         <v>58</v>
       </c>
-      <c r="B46" s="63">
+      <c r="B46" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11929,7 +11953,7 @@
       <c r="A47" s="33">
         <v>59</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11937,7 +11961,7 @@
       <c r="A48" s="33">
         <v>60</v>
       </c>
-      <c r="B48" s="63">
+      <c r="B48" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11945,7 +11969,7 @@
       <c r="A49" s="33">
         <v>61</v>
       </c>
-      <c r="B49" s="63">
+      <c r="B49" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11953,7 +11977,7 @@
       <c r="A50" s="33">
         <v>62</v>
       </c>
-      <c r="B50" s="63">
+      <c r="B50" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11961,7 +11985,7 @@
       <c r="A51" s="33">
         <v>63</v>
       </c>
-      <c r="B51" s="63">
+      <c r="B51" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11969,7 +11993,7 @@
       <c r="A52" s="33">
         <v>64</v>
       </c>
-      <c r="B52" s="63">
+      <c r="B52" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11977,7 +12001,7 @@
       <c r="A53" s="33">
         <v>65</v>
       </c>
-      <c r="B53" s="63">
+      <c r="B53" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11985,7 +12009,7 @@
       <c r="A54" s="33">
         <v>66</v>
       </c>
-      <c r="B54" s="63">
+      <c r="B54" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11993,7 +12017,7 @@
       <c r="A55" s="33">
         <v>67</v>
       </c>
-      <c r="B55" s="63">
+      <c r="B55" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12001,7 +12025,7 @@
       <c r="A56" s="33">
         <v>68</v>
       </c>
-      <c r="B56" s="63">
+      <c r="B56" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12009,7 +12033,7 @@
       <c r="A57" s="33">
         <v>69</v>
       </c>
-      <c r="B57" s="63">
+      <c r="B57" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12017,7 +12041,7 @@
       <c r="A58" s="33">
         <v>70</v>
       </c>
-      <c r="B58" s="63">
+      <c r="B58" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12025,7 +12049,7 @@
       <c r="A59" s="33">
         <v>71</v>
       </c>
-      <c r="B59" s="63">
+      <c r="B59" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12033,7 +12057,7 @@
       <c r="A60" s="33">
         <v>72</v>
       </c>
-      <c r="B60" s="63">
+      <c r="B60" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12041,7 +12065,7 @@
       <c r="A61" s="33">
         <v>73</v>
       </c>
-      <c r="B61" s="63">
+      <c r="B61" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -12049,7 +12073,7 @@
       <c r="A62" s="33">
         <v>74</v>
       </c>
-      <c r="B62" s="63">
+      <c r="B62" s="62">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>

--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -38,7 +38,6 @@
     <sheet name="Options" sheetId="36" r:id="rId24"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2052,6 +2051,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2096,13 +2102,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4857,14 +4856,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="106"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -4891,10 +4890,10 @@
       <c r="C5" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
@@ -4906,21 +4905,21 @@
       <c r="C6" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="109"/>
+      <c r="E6" s="114"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
@@ -4932,10 +4931,10 @@
       <c r="C8" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="103"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -5092,20 +5091,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
@@ -6156,10 +6155,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -6185,28 +6184,28 @@
       <c r="A7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="114"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="112"/>
+      <c r="C8" s="117"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="114"/>
+      <c r="C9" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6263,24 +6262,24 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="110"/>
+      <c r="G5" s="115"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
@@ -7354,10 +7353,10 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -7372,19 +7371,19 @@
       <c r="A6" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="120"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="114"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
@@ -7452,16 +7451,16 @@
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="115"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
@@ -8144,19 +8143,19 @@
       <c r="A4" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="109"/>
+      <c r="C4" s="114"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="109"/>
+      <c r="C5" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8177,268 +8176,268 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="119"/>
-    <col min="7" max="8" width="13.7109375" style="119" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="119"/>
-    <col min="10" max="10" width="16" style="119" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="119"/>
-    <col min="12" max="12" width="16" style="119" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="119" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="119" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="119"/>
+    <col min="1" max="6" width="9.140625" style="104"/>
+    <col min="7" max="8" width="13.7109375" style="104" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="104"/>
+    <col min="10" max="10" width="16" style="104" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="104"/>
+    <col min="12" max="12" width="16" style="104" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="104" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="104" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="105" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="105" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="122" t="s">
+      <c r="J6" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="K6" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="N6" s="122" t="s">
+      <c r="N6" s="107" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="121">
-        <v>0</v>
-      </c>
-      <c r="E7" s="122">
+      <c r="D7" s="106">
+        <v>0</v>
+      </c>
+      <c r="E7" s="107">
         <v>20</v>
       </c>
-      <c r="F7" s="122">
-        <v>0</v>
-      </c>
-      <c r="G7" s="122">
+      <c r="F7" s="107">
+        <v>0</v>
+      </c>
+      <c r="G7" s="107">
         <v>3</v>
       </c>
-      <c r="H7" s="122">
+      <c r="H7" s="107">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="107">
         <v>1</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="107">
         <v>1</v>
       </c>
-      <c r="K7" s="122">
+      <c r="K7" s="107">
         <v>62</v>
       </c>
-      <c r="L7" s="122">
+      <c r="L7" s="107">
         <v>5</v>
       </c>
-      <c r="M7" s="122">
+      <c r="M7" s="107">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N7" s="122">
+      <c r="N7" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="121">
-        <v>0</v>
-      </c>
-      <c r="E8" s="122">
+      <c r="D8" s="106">
+        <v>0</v>
+      </c>
+      <c r="E8" s="107">
         <v>20</v>
       </c>
-      <c r="F8" s="122">
-        <v>0</v>
-      </c>
-      <c r="G8" s="122">
+      <c r="F8" s="107">
+        <v>0</v>
+      </c>
+      <c r="G8" s="107">
         <v>3</v>
       </c>
-      <c r="H8" s="122">
+      <c r="H8" s="107">
         <v>0.02</v>
       </c>
-      <c r="I8" s="122">
+      <c r="I8" s="107">
         <v>1</v>
       </c>
-      <c r="J8" s="122">
+      <c r="J8" s="107">
         <v>1</v>
       </c>
-      <c r="K8" s="122">
+      <c r="K8" s="107">
         <v>65</v>
       </c>
-      <c r="L8" s="122">
+      <c r="L8" s="107">
         <v>10</v>
       </c>
-      <c r="M8" s="122">
+      <c r="M8" s="107">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N8" s="122">
+      <c r="N8" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="121">
-        <v>0</v>
-      </c>
-      <c r="E9" s="122">
+      <c r="D9" s="106">
+        <v>0</v>
+      </c>
+      <c r="E9" s="107">
         <v>20</v>
       </c>
-      <c r="F9" s="122">
-        <v>0</v>
-      </c>
-      <c r="G9" s="122">
+      <c r="F9" s="107">
+        <v>0</v>
+      </c>
+      <c r="G9" s="107">
         <v>3</v>
       </c>
-      <c r="H9" s="122">
+      <c r="H9" s="107">
         <v>0.02</v>
       </c>
-      <c r="I9" s="122">
+      <c r="I9" s="107">
         <v>1</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="107">
         <v>1</v>
       </c>
-      <c r="K9" s="122">
+      <c r="K9" s="107">
         <v>65</v>
       </c>
-      <c r="L9" s="122">
+      <c r="L9" s="107">
         <v>10</v>
       </c>
-      <c r="M9" s="122">
+      <c r="M9" s="107">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N9" s="122">
+      <c r="N9" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="121">
-        <v>0</v>
-      </c>
-      <c r="E10" s="122">
+      <c r="D10" s="106">
+        <v>0</v>
+      </c>
+      <c r="E10" s="107">
         <v>20</v>
       </c>
-      <c r="F10" s="122">
-        <v>0</v>
-      </c>
-      <c r="G10" s="122">
+      <c r="F10" s="107">
+        <v>0</v>
+      </c>
+      <c r="G10" s="107">
         <v>3</v>
       </c>
-      <c r="H10" s="122">
+      <c r="H10" s="107">
         <v>0.01</v>
       </c>
-      <c r="I10" s="122">
+      <c r="I10" s="107">
         <v>1</v>
       </c>
-      <c r="J10" s="122">
+      <c r="J10" s="107">
         <v>1</v>
       </c>
-      <c r="K10" s="122">
+      <c r="K10" s="107">
         <v>65</v>
       </c>
-      <c r="L10" s="122">
+      <c r="L10" s="107">
         <v>10</v>
       </c>
-      <c r="M10" s="122">
+      <c r="M10" s="107">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="N10" s="122">
+      <c r="N10" s="107">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="121">
-        <v>0</v>
-      </c>
-      <c r="E11" s="122">
+      <c r="D11" s="106">
+        <v>0</v>
+      </c>
+      <c r="E11" s="107">
         <v>20</v>
       </c>
-      <c r="F11" s="122">
-        <v>0</v>
-      </c>
-      <c r="G11" s="122">
+      <c r="F11" s="107">
+        <v>0</v>
+      </c>
+      <c r="G11" s="107">
         <v>3</v>
       </c>
-      <c r="H11" s="122">
+      <c r="H11" s="107">
         <v>0.01</v>
       </c>
-      <c r="I11" s="122">
+      <c r="I11" s="107">
         <v>1</v>
       </c>
-      <c r="J11" s="122">
+      <c r="J11" s="107">
         <v>1</v>
       </c>
-      <c r="K11" s="122">
+      <c r="K11" s="107">
         <v>65</v>
       </c>
-      <c r="L11" s="122">
+      <c r="L11" s="107">
         <v>10</v>
       </c>
-      <c r="M11" s="122">
+      <c r="M11" s="107">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="N11" s="122">
+      <c r="N11" s="107">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
@@ -8486,16 +8485,16 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="115"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
         <v>150</v>
       </c>
@@ -9180,20 +9179,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117" t="s">
+      <c r="C5" s="122"/>
+      <c r="D5" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="122"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="77" t="s">
         <v>176</v>
       </c>

--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -3989,7 +3989,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8176,7 +8176,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" firstSheet="7" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -644,9 +644,6 @@
     <t>Fiscal3</t>
   </si>
   <si>
-    <t>D36</t>
-  </si>
-  <si>
     <t>CAFR pdf p97</t>
   </si>
   <si>
@@ -1490,6 +1487,9 @@
   </si>
   <si>
     <t>tNF</t>
+  </si>
+  <si>
+    <t>D37</t>
   </si>
 </sst>
 </file>
@@ -3989,7 +3989,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4261,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="49"/>
     </row>
@@ -4270,7 +4270,7 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4333,10 +4333,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="98">
         <v>2011</v>
@@ -4357,15 +4357,15 @@
         <v>1430690000</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="96">
         <v>2011</v>
@@ -4386,15 +4386,15 @@
         <v>295019000</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="96">
         <v>2012</v>
@@ -4415,15 +4415,15 @@
         <v>46630000</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="96">
         <v>2012</v>
@@ -4444,15 +4444,15 @@
         <v>379255000</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="96">
         <v>2013</v>
@@ -4473,15 +4473,15 @@
         <v>189307000</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="96">
         <v>2014</v>
@@ -4502,15 +4502,15 @@
         <v>208727000</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="96">
         <v>2015</v>
@@ -4531,15 +4531,15 @@
         <v>161665000</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="98">
         <v>2016</v>
@@ -4560,15 +4560,15 @@
         <v>139707000</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="96">
         <v>2017</v>
@@ -4589,15 +4589,15 @@
         <v>186696000</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="98">
         <v>2017</v>
@@ -4618,7 +4618,7 @@
         <v>176549000</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="102">
         <v>49956623000</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="102">
         <v>57390069000</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -4857,65 +4857,65 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="109"/>
       <c r="D3" s="110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="111"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>119</v>
-      </c>
       <c r="D4" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="85" t="s">
-        <v>124</v>
-      </c>
       <c r="D5" s="113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="114"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="112" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>127</v>
       </c>
       <c r="C7" s="112"/>
       <c r="D7" s="114"/>
@@ -4923,22 +4923,22 @@
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -5087,35 +5087,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="115"/>
       <c r="D5" s="115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>151</v>
-      </c>
       <c r="D6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5123,16 +5123,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="D7" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="E7" s="67" t="s">
         <v>163</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>164</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -6156,28 +6156,28 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -6185,25 +6185,25 @@
         <v>65</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="114"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="117"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="119"/>
     </row>
@@ -6258,45 +6258,45 @@
         <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="115" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>147</v>
       </c>
       <c r="C5" s="115"/>
       <c r="D5" s="115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="115"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>151</v>
-      </c>
       <c r="D6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="65" t="s">
-        <v>151</v>
-      </c>
       <c r="F6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6304,22 +6304,22 @@
         <v>53</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="D7" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="E7" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="F7" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="67" t="s">
         <v>155</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,25 +7354,25 @@
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="120"/>
     </row>
@@ -7381,13 +7381,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="114"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -7445,27 +7445,27 @@
         <v>51</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="115"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7473,10 +7473,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>167</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>168</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -8133,18 +8133,18 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="114"/>
     </row>
@@ -8153,7 +8153,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="114"/>
     </row>
@@ -8175,8 +8175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8202,7 +8202,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -8218,7 +8218,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="107" t="s">
         <v>59</v>
@@ -8230,7 +8230,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I6" s="107" t="s">
         <v>64</v>
@@ -8245,15 +8245,15 @@
         <v>62</v>
       </c>
       <c r="M6" s="107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N6" s="107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="106">
         <v>0</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="106">
         <v>0</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="106">
         <v>0</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="106">
         <v>0</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" s="106">
         <v>0</v>
@@ -8481,25 +8481,25 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="115"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
       <c r="B6" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8507,10 +8507,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>171</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9175,35 +9175,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="122" t="s">
         <v>173</v>
-      </c>
-      <c r="B5" s="122" t="s">
-        <v>174</v>
       </c>
       <c r="C5" s="122"/>
       <c r="D5" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="122"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="121"/>
       <c r="B6" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>177</v>
-      </c>
       <c r="D6" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>176</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9211,16 +9211,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="78" t="s">
         <v>181</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -10376,10 +10376,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10409,7 +10409,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -10814,6 +10814,18 @@
       <c r="E36" s="46">
         <f t="shared" si="0"/>
         <v>82691192141.145599</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2046</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="46">
+        <f t="shared" ref="E37" si="1">E36*(1 + H$5)</f>
+        <v>85420001481.803391</v>
       </c>
     </row>
   </sheetData>
@@ -10838,12 +10850,12 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N5">
         <v>30335</v>
@@ -10938,7 +10950,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N10">
         <v>65366</v>
@@ -10990,7 +11002,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10998,7 +11010,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -11006,7 +11018,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>59</v>
@@ -11018,7 +11030,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I6" s="47" t="s">
         <v>64</v>
@@ -11033,21 +11045,21 @@
         <v>62</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O6" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="47" t="s">
         <v>207</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -11091,7 +11103,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
@@ -11135,7 +11147,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
@@ -11208,7 +11220,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11217,24 +11229,24 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
         <v>188</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>189</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>190</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>191</v>
-      </c>
-      <c r="F70" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71">
         <f>3974+207425</f>
@@ -11259,7 +11271,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72">
         <v>48628</v>
@@ -11281,7 +11293,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73">
         <v>9293</v>
@@ -11303,7 +11315,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74">
         <f>C73/C72</f>
@@ -11312,7 +11324,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B76">
         <f>B72/SUM(B72:B73)</f>
@@ -11329,8 +11341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11342,10 +11354,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
@@ -11397,7 +11409,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -11421,7 +11433,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -11429,7 +11441,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -11438,16 +11450,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>112</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -11477,7 +11489,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11529,7 +11541,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11606,7 +11618,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -11633,7 +11645,7 @@
         <v>0.10249999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" firstSheet="7" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -8175,8 +8175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9147,7 +9147,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -10378,7 +10378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="849" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -7412,8 +7412,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8175,7 +8175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -9147,8 +9147,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
